--- a/FINAL Version Key.xlsx
+++ b/FINAL Version Key.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="184">
   <si>
     <t>Assessment Details</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Those senior to me can rely on me to voluntarily share the details of my work process.</t>
+  </si>
+  <si>
+    <t>Lang Definiton Header</t>
+  </si>
+  <si>
+    <t>The 7 Forms of Respect™ Defined</t>
   </si>
   <si>
     <t>Those senior to me can rely on me to use their preferred communication method</t>
@@ -640,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -694,9 +700,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1668,14 +1671,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="8">
         <v>13.0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>27</v>
@@ -1719,7 +1726,7 @@
         <v>14.0</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>36</v>
@@ -1763,7 +1770,7 @@
         <v>15.0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>28</v>
@@ -1788,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>19</v>
@@ -1807,7 +1814,7 @@
         <v>16.0</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>28</v>
@@ -1832,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>19</v>
@@ -1851,7 +1858,7 @@
         <v>17.0</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>36</v>
@@ -1876,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>19</v>
@@ -1895,7 +1902,7 @@
         <v>18.0</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>41</v>
@@ -1920,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>19</v>
@@ -1939,7 +1946,7 @@
         <v>19.0</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>46</v>
@@ -1964,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>19</v>
@@ -1983,7 +1990,7 @@
         <v>20.0</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>46</v>
@@ -2008,7 +2015,7 @@
         <v>22</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>19</v>
@@ -2027,7 +2034,7 @@
         <v>21.0</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>51</v>
@@ -2052,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>19</v>
@@ -2071,7 +2078,7 @@
         <v>22.0</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>27</v>
@@ -2099,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="12"/>
@@ -2115,7 +2122,7 @@
         <v>23.0</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>28</v>
@@ -2143,7 +2150,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="8"/>
@@ -2159,7 +2166,7 @@
         <v>24.0</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>41</v>
@@ -2187,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="12"/>
@@ -2203,7 +2210,7 @@
         <v>25.0</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>36</v>
@@ -2231,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="8"/>
@@ -2247,7 +2254,7 @@
         <v>26.0</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>41</v>
@@ -2275,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="12"/>
@@ -2291,7 +2298,7 @@
         <v>27.0</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>46</v>
@@ -2319,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="8"/>
@@ -2335,7 +2342,7 @@
         <v>28.0</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>27</v>
@@ -2363,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="12"/>
@@ -2379,7 +2386,7 @@
         <v>29.0</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>51</v>
@@ -2407,7 +2414,7 @@
         <v>55</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="8"/>
@@ -2423,7 +2430,7 @@
         <v>30.0</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>17</v>
@@ -2451,7 +2458,7 @@
         <v>55</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="12"/>
@@ -2467,7 +2474,7 @@
         <v>31.0</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>36</v>
@@ -2495,7 +2502,7 @@
         <v>55</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="8"/>
@@ -2511,7 +2518,7 @@
         <v>32.0</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>17</v>
@@ -2539,7 +2546,7 @@
         <v>55</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="12"/>
@@ -2555,7 +2562,7 @@
         <v>33.0</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>27</v>
@@ -2583,7 +2590,7 @@
         <v>55</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="8"/>
@@ -2599,7 +2606,7 @@
         <v>34.0</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>46</v>
@@ -2627,7 +2634,7 @@
         <v>55</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="12"/>
@@ -2643,7 +2650,7 @@
         <v>35.0</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>28</v>
@@ -2671,7 +2678,7 @@
         <v>55</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="8"/>
@@ -2687,7 +2694,7 @@
         <v>36.0</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>36</v>
@@ -2712,10 +2719,10 @@
         <v>22</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="12"/>
@@ -2731,7 +2738,7 @@
         <v>37.0</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>51</v>
@@ -2756,10 +2763,10 @@
         <v>22</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="8"/>
@@ -2775,7 +2782,7 @@
         <v>38.0</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>17</v>
@@ -2800,10 +2807,10 @@
         <v>22</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="12"/>
@@ -2819,7 +2826,7 @@
         <v>39.0</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>41</v>
@@ -2844,10 +2851,10 @@
         <v>22</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="8"/>
@@ -2863,7 +2870,7 @@
         <v>40.0</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>46</v>
@@ -2888,10 +2895,10 @@
         <v>22</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="12"/>
@@ -2907,7 +2914,7 @@
         <v>41.0</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>28</v>
@@ -2932,10 +2939,10 @@
         <v>22</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="8"/>
@@ -2951,7 +2958,7 @@
         <v>42.0</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>51</v>
@@ -2976,10 +2983,10 @@
         <v>22</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="12"/>
@@ -2995,13 +3002,13 @@
         <v>43.0</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>19</v>
@@ -3027,13 +3034,13 @@
         <v>44.0</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>19</v>
@@ -3059,13 +3066,13 @@
         <v>45.0</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>19</v>
@@ -3091,13 +3098,13 @@
         <v>46.0</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>19</v>
@@ -3123,13 +3130,13 @@
         <v>47.0</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>19</v>
@@ -3155,13 +3162,13 @@
         <v>48.0</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>19</v>
@@ -3187,13 +3194,13 @@
         <v>49.0</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>19</v>
@@ -3219,13 +3226,13 @@
         <v>50.0</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>19</v>
@@ -3251,13 +3258,13 @@
         <v>51.0</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>19</v>
@@ -3283,13 +3290,13 @@
         <v>52.0</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>19</v>
@@ -3315,13 +3322,13 @@
         <v>53.0</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>19</v>
@@ -3347,13 +3354,13 @@
         <v>54.0</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>19</v>
@@ -3379,13 +3386,13 @@
         <v>55.0</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>19</v>
@@ -3411,13 +3418,13 @@
         <v>56.0</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>19</v>
@@ -3443,13 +3450,13 @@
         <v>57.0</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>19</v>
@@ -3475,13 +3482,13 @@
         <v>58.0</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>19</v>
@@ -3507,13 +3514,13 @@
         <v>59.0</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>19</v>
@@ -3539,13 +3546,13 @@
         <v>60.0</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>19</v>
@@ -3571,13 +3578,13 @@
         <v>61.0</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>19</v>
@@ -3603,13 +3610,13 @@
         <v>62.0</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>19</v>
@@ -3635,13 +3642,13 @@
         <v>63.0</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>19</v>
@@ -3667,7 +3674,7 @@
         <v>64.0</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>17</v>
@@ -3676,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="14"/>
@@ -3699,7 +3706,7 @@
         <v>65.0</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>27</v>
@@ -3708,7 +3715,7 @@
         <v>18</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="6"/>
@@ -3731,7 +3738,7 @@
         <v>66.0</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>28</v>
@@ -3740,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="14"/>
@@ -3763,7 +3770,7 @@
         <v>67.0</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>36</v>
@@ -3772,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="6"/>
@@ -3795,7 +3802,7 @@
         <v>68.0</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>41</v>
@@ -3804,7 +3811,7 @@
         <v>18</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69" s="14"/>
@@ -3827,7 +3834,7 @@
         <v>69.0</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>46</v>
@@ -3836,7 +3843,7 @@
         <v>18</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="6"/>
@@ -3859,7 +3866,7 @@
         <v>70.0</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>51</v>
@@ -3868,7 +3875,7 @@
         <v>18</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="14"/>
@@ -3891,7 +3898,7 @@
         <v>71.0</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>17</v>
@@ -3900,7 +3907,7 @@
         <v>18</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="6"/>
@@ -3923,7 +3930,7 @@
         <v>72.0</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>27</v>
@@ -3932,7 +3939,7 @@
         <v>18</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73" s="14"/>
@@ -3955,7 +3962,7 @@
         <v>73.0</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>28</v>
@@ -3964,7 +3971,7 @@
         <v>18</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="6"/>
@@ -3987,7 +3994,7 @@
         <v>74.0</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>36</v>
@@ -3996,7 +4003,7 @@
         <v>18</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="14"/>
@@ -4019,7 +4026,7 @@
         <v>75.0</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>41</v>
@@ -4028,7 +4035,7 @@
         <v>18</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="6"/>
@@ -4051,7 +4058,7 @@
         <v>76.0</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>46</v>
@@ -4060,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77" s="14"/>
@@ -4083,7 +4090,7 @@
         <v>77.0</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>51</v>
@@ -4092,7 +4099,7 @@
         <v>18</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="6"/>
@@ -4115,7 +4122,7 @@
         <v>78.0</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>17</v>
@@ -4124,7 +4131,7 @@
         <v>18</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79" s="14"/>
@@ -4147,7 +4154,7 @@
         <v>79.0</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>27</v>
@@ -4156,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J80" s="10"/>
       <c r="K80" s="6"/>
@@ -4179,7 +4186,7 @@
         <v>80.0</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>28</v>
@@ -4188,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="14"/>
@@ -4211,7 +4218,7 @@
         <v>81.0</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>36</v>
@@ -4220,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="6"/>
@@ -4243,7 +4250,7 @@
         <v>82.0</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>41</v>
@@ -4252,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="14"/>
@@ -4275,7 +4282,7 @@
         <v>83.0</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>46</v>
@@ -4284,7 +4291,7 @@
         <v>18</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J84" s="10"/>
       <c r="K84" s="6"/>
@@ -4307,7 +4314,7 @@
         <v>84.0</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>51</v>
@@ -4316,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J85" s="10"/>
       <c r="K85" s="14"/>
@@ -4339,7 +4346,7 @@
         <v>85.0</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>27</v>
@@ -4348,7 +4355,7 @@
         <v>55</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J86" s="10"/>
       <c r="K86" s="6"/>
@@ -4371,7 +4378,7 @@
         <v>86.0</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>28</v>
@@ -4380,7 +4387,7 @@
         <v>55</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J87" s="10"/>
       <c r="K87" s="14"/>
@@ -4403,7 +4410,7 @@
         <v>87.0</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>17</v>
@@ -4412,7 +4419,7 @@
         <v>55</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="6"/>
@@ -4435,7 +4442,7 @@
         <v>88.0</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>36</v>
@@ -4444,7 +4451,7 @@
         <v>55</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J89" s="10"/>
       <c r="K89" s="14"/>
@@ -4467,7 +4474,7 @@
         <v>89.0</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>41</v>
@@ -4476,7 +4483,7 @@
         <v>55</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J90" s="10"/>
       <c r="K90" s="6"/>
@@ -4499,7 +4506,7 @@
         <v>90.0</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>46</v>
@@ -4508,7 +4515,7 @@
         <v>55</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="14"/>
@@ -4531,7 +4538,7 @@
         <v>91.0</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>27</v>
@@ -4540,7 +4547,7 @@
         <v>55</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J92" s="10"/>
       <c r="K92" s="6"/>
@@ -4563,7 +4570,7 @@
         <v>92.0</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>17</v>
@@ -4572,7 +4579,7 @@
         <v>55</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="14"/>
@@ -4595,7 +4602,7 @@
         <v>93.0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>51</v>
@@ -4604,7 +4611,7 @@
         <v>55</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J94" s="10"/>
       <c r="K94" s="6"/>
@@ -4627,7 +4634,7 @@
         <v>94.0</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>27</v>
@@ -4636,7 +4643,7 @@
         <v>55</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="14"/>
@@ -4659,7 +4666,7 @@
         <v>95.0</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>28</v>
@@ -4668,7 +4675,7 @@
         <v>55</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J96" s="10"/>
       <c r="K96" s="6"/>
@@ -4691,7 +4698,7 @@
         <v>96.0</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>41</v>
@@ -4700,7 +4707,7 @@
         <v>55</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J97" s="10"/>
       <c r="K97" s="14"/>
@@ -4723,7 +4730,7 @@
         <v>97.0</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>46</v>
@@ -4732,7 +4739,7 @@
         <v>55</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J98" s="10"/>
       <c r="K98" s="6"/>
@@ -4755,7 +4762,7 @@
         <v>98.0</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>46</v>
@@ -4764,7 +4771,7 @@
         <v>55</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="14"/>
@@ -4787,7 +4794,7 @@
         <v>99.0</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>51</v>
@@ -4796,7 +4803,7 @@
         <v>55</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="6"/>
@@ -4819,7 +4826,7 @@
         <v>100.0</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>36</v>
@@ -4828,7 +4835,7 @@
         <v>55</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J101" s="10"/>
       <c r="K101" s="14"/>
@@ -4851,7 +4858,7 @@
         <v>101.0</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>28</v>
@@ -4860,7 +4867,7 @@
         <v>55</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J102" s="10"/>
       <c r="K102" s="6"/>
@@ -4883,7 +4890,7 @@
         <v>102.0</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>41</v>
@@ -4892,7 +4899,7 @@
         <v>55</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="14"/>
@@ -4915,7 +4922,7 @@
         <v>103.0</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>36</v>
@@ -4924,7 +4931,7 @@
         <v>55</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J104" s="10"/>
       <c r="K104" s="6"/>
@@ -4947,7 +4954,7 @@
         <v>104.0</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>51</v>
@@ -4956,7 +4963,7 @@
         <v>55</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J105" s="10"/>
       <c r="K105" s="14"/>
@@ -4979,7 +4986,7 @@
         <v>105.0</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>17</v>
@@ -4988,7 +4995,7 @@
         <v>55</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J106" s="10"/>
       <c r="K106" s="6"/>
@@ -5011,16 +5018,16 @@
         <v>106.0</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="14"/>
@@ -5043,16 +5050,16 @@
         <v>107.0</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J108" s="10"/>
       <c r="K108" s="6"/>
@@ -5075,16 +5082,16 @@
         <v>108.0</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J109" s="10"/>
       <c r="K109" s="14"/>
@@ -5107,16 +5114,16 @@
         <v>109.0</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J110" s="10"/>
       <c r="K110" s="6"/>
@@ -5139,16 +5146,16 @@
         <v>110.0</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G111" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J111" s="10"/>
       <c r="K111" s="14"/>
@@ -5171,16 +5178,16 @@
         <v>111.0</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J112" s="10"/>
       <c r="K112" s="6"/>
@@ -5203,16 +5210,16 @@
         <v>112.0</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G113" s="13" t="s">
         <v>36</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J113" s="10"/>
       <c r="K113" s="14"/>
@@ -5235,16 +5242,16 @@
         <v>113.0</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J114" s="10"/>
       <c r="K114" s="6"/>
@@ -5267,16 +5274,16 @@
         <v>114.0</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J115" s="10"/>
       <c r="K115" s="14"/>
@@ -5299,16 +5306,16 @@
         <v>115.0</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J116" s="10"/>
       <c r="K116" s="6"/>
@@ -5331,16 +5338,16 @@
         <v>116.0</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="14"/>
@@ -5363,16 +5370,16 @@
         <v>117.0</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J118" s="10"/>
       <c r="K118" s="6"/>
@@ -5395,16 +5402,16 @@
         <v>118.0</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J119" s="10"/>
       <c r="K119" s="14"/>
@@ -5427,16 +5434,16 @@
         <v>119.0</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J120" s="10"/>
       <c r="K120" s="6"/>
@@ -5459,16 +5466,16 @@
         <v>120.0</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J121" s="10"/>
       <c r="K121" s="14"/>
@@ -5491,16 +5498,16 @@
         <v>121.0</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J122" s="10"/>
       <c r="K122" s="6"/>
@@ -5523,16 +5530,16 @@
         <v>122.0</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G123" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J123" s="10"/>
       <c r="K123" s="14"/>
@@ -5555,16 +5562,16 @@
         <v>123.0</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="6"/>
@@ -5587,16 +5594,16 @@
         <v>124.0</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J125" s="10"/>
       <c r="K125" s="14"/>
@@ -5619,16 +5626,16 @@
         <v>125.0</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J126" s="10"/>
       <c r="K126" s="6"/>
@@ -5651,16 +5658,16 @@
         <v>126.0</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J127" s="10"/>
       <c r="K127" s="14"/>
@@ -7238,8 +7245,8 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
       <c r="D199" s="1"/>
       <c r="E199" s="14"/>
       <c r="F199" s="14"/>
@@ -7260,2818 +7267,2818 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
       <c r="J200" s="1"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-      <c r="O200" s="19"/>
-      <c r="P200" s="19"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
       <c r="Q200" s="1"/>
-      <c r="R200" s="19"/>
-      <c r="S200" s="19"/>
+      <c r="R200" s="18"/>
+      <c r="S200" s="18"/>
       <c r="T200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
       <c r="J201" s="1"/>
-      <c r="K201" s="19"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
-      <c r="O201" s="19"/>
-      <c r="P201" s="19"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+      <c r="O201" s="18"/>
+      <c r="P201" s="18"/>
       <c r="Q201" s="1"/>
-      <c r="R201" s="19"/>
-      <c r="S201" s="19"/>
+      <c r="R201" s="18"/>
+      <c r="S201" s="18"/>
       <c r="T201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
       <c r="J202" s="1"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-      <c r="O202" s="19"/>
-      <c r="P202" s="19"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="18"/>
+      <c r="P202" s="18"/>
       <c r="Q202" s="1"/>
-      <c r="R202" s="19"/>
-      <c r="S202" s="19"/>
+      <c r="R202" s="18"/>
+      <c r="S202" s="18"/>
       <c r="T202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
       <c r="J203" s="1"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-      <c r="O203" s="19"/>
-      <c r="P203" s="19"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="18"/>
+      <c r="M203" s="18"/>
+      <c r="N203" s="18"/>
+      <c r="O203" s="18"/>
+      <c r="P203" s="18"/>
       <c r="Q203" s="1"/>
-      <c r="R203" s="19"/>
-      <c r="S203" s="19"/>
+      <c r="R203" s="18"/>
+      <c r="S203" s="18"/>
       <c r="T203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-      <c r="O204" s="19"/>
-      <c r="P204" s="19"/>
+      <c r="K204" s="18"/>
+      <c r="L204" s="18"/>
+      <c r="M204" s="18"/>
+      <c r="N204" s="18"/>
+      <c r="O204" s="18"/>
+      <c r="P204" s="18"/>
       <c r="Q204" s="1"/>
-      <c r="R204" s="19"/>
-      <c r="S204" s="19"/>
+      <c r="R204" s="18"/>
+      <c r="S204" s="18"/>
       <c r="T204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-      <c r="O205" s="19"/>
-      <c r="P205" s="19"/>
+      <c r="K205" s="18"/>
+      <c r="L205" s="18"/>
+      <c r="M205" s="18"/>
+      <c r="N205" s="18"/>
+      <c r="O205" s="18"/>
+      <c r="P205" s="18"/>
       <c r="Q205" s="1"/>
-      <c r="R205" s="19"/>
-      <c r="S205" s="19"/>
+      <c r="R205" s="18"/>
+      <c r="S205" s="18"/>
       <c r="T205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-      <c r="O206" s="19"/>
-      <c r="P206" s="19"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="18"/>
+      <c r="P206" s="18"/>
       <c r="Q206" s="1"/>
-      <c r="R206" s="19"/>
-      <c r="S206" s="19"/>
+      <c r="R206" s="18"/>
+      <c r="S206" s="18"/>
       <c r="T206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
       <c r="J207" s="1"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-      <c r="O207" s="19"/>
-      <c r="P207" s="19"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="18"/>
+      <c r="O207" s="18"/>
+      <c r="P207" s="18"/>
       <c r="Q207" s="1"/>
-      <c r="R207" s="19"/>
-      <c r="S207" s="19"/>
+      <c r="R207" s="18"/>
+      <c r="S207" s="18"/>
       <c r="T207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
       <c r="J208" s="1"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-      <c r="N208" s="19"/>
-      <c r="O208" s="19"/>
-      <c r="P208" s="19"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18"/>
+      <c r="M208" s="18"/>
+      <c r="N208" s="18"/>
+      <c r="O208" s="18"/>
+      <c r="P208" s="18"/>
       <c r="Q208" s="1"/>
-      <c r="R208" s="19"/>
-      <c r="S208" s="19"/>
+      <c r="R208" s="18"/>
+      <c r="S208" s="18"/>
       <c r="T208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
       <c r="J209" s="1"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-      <c r="O209" s="19"/>
-      <c r="P209" s="19"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
+      <c r="N209" s="18"/>
+      <c r="O209" s="18"/>
+      <c r="P209" s="18"/>
       <c r="Q209" s="1"/>
-      <c r="R209" s="19"/>
-      <c r="S209" s="19"/>
+      <c r="R209" s="18"/>
+      <c r="S209" s="18"/>
       <c r="T209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
       <c r="J210" s="1"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-      <c r="O210" s="19"/>
-      <c r="P210" s="19"/>
+      <c r="K210" s="18"/>
+      <c r="L210" s="18"/>
+      <c r="M210" s="18"/>
+      <c r="N210" s="18"/>
+      <c r="O210" s="18"/>
+      <c r="P210" s="18"/>
       <c r="Q210" s="1"/>
-      <c r="R210" s="19"/>
-      <c r="S210" s="19"/>
+      <c r="R210" s="18"/>
+      <c r="S210" s="18"/>
       <c r="T210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
       <c r="J211" s="1"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
+      <c r="K211" s="18"/>
+      <c r="L211" s="18"/>
+      <c r="M211" s="18"/>
+      <c r="N211" s="18"/>
+      <c r="O211" s="18"/>
+      <c r="P211" s="18"/>
       <c r="Q211" s="1"/>
-      <c r="R211" s="19"/>
-      <c r="S211" s="19"/>
+      <c r="R211" s="18"/>
+      <c r="S211" s="18"/>
       <c r="T211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
       <c r="J212" s="1"/>
-      <c r="K212" s="19"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
-      <c r="N212" s="19"/>
-      <c r="O212" s="19"/>
-      <c r="P212" s="19"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="18"/>
+      <c r="M212" s="18"/>
+      <c r="N212" s="18"/>
+      <c r="O212" s="18"/>
+      <c r="P212" s="18"/>
       <c r="Q212" s="1"/>
-      <c r="R212" s="19"/>
-      <c r="S212" s="19"/>
+      <c r="R212" s="18"/>
+      <c r="S212" s="18"/>
       <c r="T212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
       <c r="J213" s="1"/>
-      <c r="K213" s="19"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
-      <c r="N213" s="19"/>
-      <c r="O213" s="19"/>
-      <c r="P213" s="19"/>
+      <c r="K213" s="18"/>
+      <c r="L213" s="18"/>
+      <c r="M213" s="18"/>
+      <c r="N213" s="18"/>
+      <c r="O213" s="18"/>
+      <c r="P213" s="18"/>
       <c r="Q213" s="1"/>
-      <c r="R213" s="19"/>
-      <c r="S213" s="19"/>
+      <c r="R213" s="18"/>
+      <c r="S213" s="18"/>
       <c r="T213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
       <c r="J214" s="1"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-      <c r="O214" s="19"/>
-      <c r="P214" s="19"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="18"/>
+      <c r="M214" s="18"/>
+      <c r="N214" s="18"/>
+      <c r="O214" s="18"/>
+      <c r="P214" s="18"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="19"/>
-      <c r="S214" s="19"/>
+      <c r="R214" s="18"/>
+      <c r="S214" s="18"/>
       <c r="T214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
       <c r="J215" s="1"/>
-      <c r="K215" s="19"/>
-      <c r="L215" s="19"/>
-      <c r="M215" s="19"/>
-      <c r="N215" s="19"/>
-      <c r="O215" s="19"/>
-      <c r="P215" s="19"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="18"/>
+      <c r="M215" s="18"/>
+      <c r="N215" s="18"/>
+      <c r="O215" s="18"/>
+      <c r="P215" s="18"/>
       <c r="Q215" s="1"/>
-      <c r="R215" s="19"/>
-      <c r="S215" s="19"/>
+      <c r="R215" s="18"/>
+      <c r="S215" s="18"/>
       <c r="T215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="18"/>
+      <c r="H216" s="18"/>
+      <c r="I216" s="18"/>
       <c r="J216" s="1"/>
-      <c r="K216" s="19"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
-      <c r="N216" s="19"/>
-      <c r="O216" s="19"/>
-      <c r="P216" s="19"/>
+      <c r="K216" s="18"/>
+      <c r="L216" s="18"/>
+      <c r="M216" s="18"/>
+      <c r="N216" s="18"/>
+      <c r="O216" s="18"/>
+      <c r="P216" s="18"/>
       <c r="Q216" s="1"/>
-      <c r="R216" s="19"/>
-      <c r="S216" s="19"/>
+      <c r="R216" s="18"/>
+      <c r="S216" s="18"/>
       <c r="T216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
       <c r="J217" s="1"/>
-      <c r="K217" s="19"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-      <c r="N217" s="19"/>
-      <c r="O217" s="19"/>
-      <c r="P217" s="19"/>
+      <c r="K217" s="18"/>
+      <c r="L217" s="18"/>
+      <c r="M217" s="18"/>
+      <c r="N217" s="18"/>
+      <c r="O217" s="18"/>
+      <c r="P217" s="18"/>
       <c r="Q217" s="1"/>
-      <c r="R217" s="19"/>
-      <c r="S217" s="19"/>
+      <c r="R217" s="18"/>
+      <c r="S217" s="18"/>
       <c r="T217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="18"/>
+      <c r="H218" s="18"/>
+      <c r="I218" s="18"/>
       <c r="J218" s="1"/>
-      <c r="K218" s="19"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-      <c r="O218" s="19"/>
-      <c r="P218" s="19"/>
+      <c r="K218" s="18"/>
+      <c r="L218" s="18"/>
+      <c r="M218" s="18"/>
+      <c r="N218" s="18"/>
+      <c r="O218" s="18"/>
+      <c r="P218" s="18"/>
       <c r="Q218" s="1"/>
-      <c r="R218" s="19"/>
-      <c r="S218" s="19"/>
+      <c r="R218" s="18"/>
+      <c r="S218" s="18"/>
       <c r="T218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="18"/>
+      <c r="H219" s="18"/>
+      <c r="I219" s="18"/>
       <c r="J219" s="1"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
-      <c r="N219" s="19"/>
-      <c r="O219" s="19"/>
-      <c r="P219" s="19"/>
+      <c r="K219" s="18"/>
+      <c r="L219" s="18"/>
+      <c r="M219" s="18"/>
+      <c r="N219" s="18"/>
+      <c r="O219" s="18"/>
+      <c r="P219" s="18"/>
       <c r="Q219" s="1"/>
-      <c r="R219" s="19"/>
-      <c r="S219" s="19"/>
+      <c r="R219" s="18"/>
+      <c r="S219" s="18"/>
       <c r="T219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
       <c r="J220" s="1"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="19"/>
-      <c r="P220" s="19"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="18"/>
+      <c r="M220" s="18"/>
+      <c r="N220" s="18"/>
+      <c r="O220" s="18"/>
+      <c r="P220" s="18"/>
       <c r="Q220" s="1"/>
-      <c r="R220" s="19"/>
-      <c r="S220" s="19"/>
+      <c r="R220" s="18"/>
+      <c r="S220" s="18"/>
       <c r="T220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="18"/>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
       <c r="J221" s="1"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="19"/>
-      <c r="P221" s="19"/>
+      <c r="K221" s="18"/>
+      <c r="L221" s="18"/>
+      <c r="M221" s="18"/>
+      <c r="N221" s="18"/>
+      <c r="O221" s="18"/>
+      <c r="P221" s="18"/>
       <c r="Q221" s="1"/>
-      <c r="R221" s="19"/>
-      <c r="S221" s="19"/>
+      <c r="R221" s="18"/>
+      <c r="S221" s="18"/>
       <c r="T221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="18"/>
+      <c r="H222" s="18"/>
+      <c r="I222" s="18"/>
       <c r="J222" s="1"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
-      <c r="P222" s="19"/>
+      <c r="K222" s="18"/>
+      <c r="L222" s="18"/>
+      <c r="M222" s="18"/>
+      <c r="N222" s="18"/>
+      <c r="O222" s="18"/>
+      <c r="P222" s="18"/>
       <c r="Q222" s="1"/>
-      <c r="R222" s="19"/>
-      <c r="S222" s="19"/>
+      <c r="R222" s="18"/>
+      <c r="S222" s="18"/>
       <c r="T222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="18"/>
+      <c r="H223" s="18"/>
+      <c r="I223" s="18"/>
       <c r="J223" s="1"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-      <c r="O223" s="19"/>
-      <c r="P223" s="19"/>
+      <c r="K223" s="18"/>
+      <c r="L223" s="18"/>
+      <c r="M223" s="18"/>
+      <c r="N223" s="18"/>
+      <c r="O223" s="18"/>
+      <c r="P223" s="18"/>
       <c r="Q223" s="1"/>
-      <c r="R223" s="19"/>
-      <c r="S223" s="19"/>
+      <c r="R223" s="18"/>
+      <c r="S223" s="18"/>
       <c r="T223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="18"/>
+      <c r="H224" s="18"/>
+      <c r="I224" s="18"/>
       <c r="J224" s="1"/>
-      <c r="K224" s="19"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
-      <c r="N224" s="19"/>
-      <c r="O224" s="19"/>
-      <c r="P224" s="19"/>
+      <c r="K224" s="18"/>
+      <c r="L224" s="18"/>
+      <c r="M224" s="18"/>
+      <c r="N224" s="18"/>
+      <c r="O224" s="18"/>
+      <c r="P224" s="18"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="19"/>
-      <c r="S224" s="19"/>
+      <c r="R224" s="18"/>
+      <c r="S224" s="18"/>
       <c r="T224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="18"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="18"/>
+      <c r="I225" s="18"/>
       <c r="J225" s="1"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
-      <c r="N225" s="19"/>
-      <c r="O225" s="19"/>
-      <c r="P225" s="19"/>
+      <c r="K225" s="18"/>
+      <c r="L225" s="18"/>
+      <c r="M225" s="18"/>
+      <c r="N225" s="18"/>
+      <c r="O225" s="18"/>
+      <c r="P225" s="18"/>
       <c r="Q225" s="1"/>
-      <c r="R225" s="19"/>
-      <c r="S225" s="19"/>
+      <c r="R225" s="18"/>
+      <c r="S225" s="18"/>
       <c r="T225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="18"/>
+      <c r="I226" s="18"/>
       <c r="J226" s="1"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-      <c r="O226" s="19"/>
-      <c r="P226" s="19"/>
+      <c r="K226" s="18"/>
+      <c r="L226" s="18"/>
+      <c r="M226" s="18"/>
+      <c r="N226" s="18"/>
+      <c r="O226" s="18"/>
+      <c r="P226" s="18"/>
       <c r="Q226" s="1"/>
-      <c r="R226" s="19"/>
-      <c r="S226" s="19"/>
+      <c r="R226" s="18"/>
+      <c r="S226" s="18"/>
       <c r="T226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
       <c r="J227" s="1"/>
-      <c r="K227" s="19"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
-      <c r="N227" s="19"/>
-      <c r="O227" s="19"/>
-      <c r="P227" s="19"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="18"/>
+      <c r="M227" s="18"/>
+      <c r="N227" s="18"/>
+      <c r="O227" s="18"/>
+      <c r="P227" s="18"/>
       <c r="Q227" s="1"/>
-      <c r="R227" s="19"/>
-      <c r="S227" s="19"/>
+      <c r="R227" s="18"/>
+      <c r="S227" s="18"/>
       <c r="T227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
       <c r="J228" s="1"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
-      <c r="N228" s="19"/>
-      <c r="O228" s="19"/>
-      <c r="P228" s="19"/>
+      <c r="K228" s="18"/>
+      <c r="L228" s="18"/>
+      <c r="M228" s="18"/>
+      <c r="N228" s="18"/>
+      <c r="O228" s="18"/>
+      <c r="P228" s="18"/>
       <c r="Q228" s="1"/>
-      <c r="R228" s="19"/>
-      <c r="S228" s="19"/>
+      <c r="R228" s="18"/>
+      <c r="S228" s="18"/>
       <c r="T228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
       <c r="J229" s="1"/>
-      <c r="K229" s="19"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
-      <c r="N229" s="19"/>
-      <c r="O229" s="19"/>
-      <c r="P229" s="19"/>
+      <c r="K229" s="18"/>
+      <c r="L229" s="18"/>
+      <c r="M229" s="18"/>
+      <c r="N229" s="18"/>
+      <c r="O229" s="18"/>
+      <c r="P229" s="18"/>
       <c r="Q229" s="1"/>
-      <c r="R229" s="19"/>
-      <c r="S229" s="19"/>
+      <c r="R229" s="18"/>
+      <c r="S229" s="18"/>
       <c r="T229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
       <c r="J230" s="1"/>
-      <c r="K230" s="19"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
-      <c r="N230" s="19"/>
-      <c r="O230" s="19"/>
-      <c r="P230" s="19"/>
+      <c r="K230" s="18"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="18"/>
+      <c r="N230" s="18"/>
+      <c r="O230" s="18"/>
+      <c r="P230" s="18"/>
       <c r="Q230" s="1"/>
-      <c r="R230" s="19"/>
-      <c r="S230" s="19"/>
+      <c r="R230" s="18"/>
+      <c r="S230" s="18"/>
       <c r="T230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
       <c r="J231" s="1"/>
-      <c r="K231" s="19"/>
-      <c r="L231" s="19"/>
-      <c r="M231" s="19"/>
-      <c r="N231" s="19"/>
-      <c r="O231" s="19"/>
-      <c r="P231" s="19"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="18"/>
+      <c r="M231" s="18"/>
+      <c r="N231" s="18"/>
+      <c r="O231" s="18"/>
+      <c r="P231" s="18"/>
       <c r="Q231" s="1"/>
-      <c r="R231" s="19"/>
-      <c r="S231" s="19"/>
+      <c r="R231" s="18"/>
+      <c r="S231" s="18"/>
       <c r="T231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
       <c r="J232" s="1"/>
-      <c r="K232" s="19"/>
-      <c r="L232" s="19"/>
-      <c r="M232" s="19"/>
-      <c r="N232" s="19"/>
-      <c r="O232" s="19"/>
-      <c r="P232" s="19"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="18"/>
+      <c r="M232" s="18"/>
+      <c r="N232" s="18"/>
+      <c r="O232" s="18"/>
+      <c r="P232" s="18"/>
       <c r="Q232" s="1"/>
-      <c r="R232" s="19"/>
-      <c r="S232" s="19"/>
+      <c r="R232" s="18"/>
+      <c r="S232" s="18"/>
       <c r="T232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
       <c r="J233" s="1"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-      <c r="O233" s="19"/>
-      <c r="P233" s="19"/>
+      <c r="K233" s="18"/>
+      <c r="L233" s="18"/>
+      <c r="M233" s="18"/>
+      <c r="N233" s="18"/>
+      <c r="O233" s="18"/>
+      <c r="P233" s="18"/>
       <c r="Q233" s="1"/>
-      <c r="R233" s="19"/>
-      <c r="S233" s="19"/>
+      <c r="R233" s="18"/>
+      <c r="S233" s="18"/>
       <c r="T233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
       <c r="J234" s="1"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
-      <c r="O234" s="19"/>
-      <c r="P234" s="19"/>
+      <c r="K234" s="18"/>
+      <c r="L234" s="18"/>
+      <c r="M234" s="18"/>
+      <c r="N234" s="18"/>
+      <c r="O234" s="18"/>
+      <c r="P234" s="18"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="19"/>
-      <c r="S234" s="19"/>
+      <c r="R234" s="18"/>
+      <c r="S234" s="18"/>
       <c r="T234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
       <c r="J235" s="1"/>
-      <c r="K235" s="19"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
-      <c r="N235" s="19"/>
-      <c r="O235" s="19"/>
-      <c r="P235" s="19"/>
+      <c r="K235" s="18"/>
+      <c r="L235" s="18"/>
+      <c r="M235" s="18"/>
+      <c r="N235" s="18"/>
+      <c r="O235" s="18"/>
+      <c r="P235" s="18"/>
       <c r="Q235" s="1"/>
-      <c r="R235" s="19"/>
-      <c r="S235" s="19"/>
+      <c r="R235" s="18"/>
+      <c r="S235" s="18"/>
       <c r="T235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
       <c r="J236" s="1"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-      <c r="O236" s="19"/>
-      <c r="P236" s="19"/>
+      <c r="K236" s="18"/>
+      <c r="L236" s="18"/>
+      <c r="M236" s="18"/>
+      <c r="N236" s="18"/>
+      <c r="O236" s="18"/>
+      <c r="P236" s="18"/>
       <c r="Q236" s="1"/>
-      <c r="R236" s="19"/>
-      <c r="S236" s="19"/>
+      <c r="R236" s="18"/>
+      <c r="S236" s="18"/>
       <c r="T236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
       <c r="J237" s="1"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="19"/>
-      <c r="N237" s="19"/>
-      <c r="O237" s="19"/>
-      <c r="P237" s="19"/>
+      <c r="K237" s="18"/>
+      <c r="L237" s="18"/>
+      <c r="M237" s="18"/>
+      <c r="N237" s="18"/>
+      <c r="O237" s="18"/>
+      <c r="P237" s="18"/>
       <c r="Q237" s="1"/>
-      <c r="R237" s="19"/>
-      <c r="S237" s="19"/>
+      <c r="R237" s="18"/>
+      <c r="S237" s="18"/>
       <c r="T237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
       <c r="J238" s="1"/>
-      <c r="K238" s="19"/>
-      <c r="L238" s="19"/>
-      <c r="M238" s="19"/>
-      <c r="N238" s="19"/>
-      <c r="O238" s="19"/>
-      <c r="P238" s="19"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="18"/>
+      <c r="M238" s="18"/>
+      <c r="N238" s="18"/>
+      <c r="O238" s="18"/>
+      <c r="P238" s="18"/>
       <c r="Q238" s="1"/>
-      <c r="R238" s="19"/>
-      <c r="S238" s="19"/>
+      <c r="R238" s="18"/>
+      <c r="S238" s="18"/>
       <c r="T238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="19"/>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
       <c r="J239" s="1"/>
-      <c r="K239" s="19"/>
-      <c r="L239" s="19"/>
-      <c r="M239" s="19"/>
-      <c r="N239" s="19"/>
-      <c r="O239" s="19"/>
-      <c r="P239" s="19"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="18"/>
+      <c r="M239" s="18"/>
+      <c r="N239" s="18"/>
+      <c r="O239" s="18"/>
+      <c r="P239" s="18"/>
       <c r="Q239" s="1"/>
-      <c r="R239" s="19"/>
-      <c r="S239" s="19"/>
+      <c r="R239" s="18"/>
+      <c r="S239" s="18"/>
       <c r="T239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="19"/>
-      <c r="G240" s="19"/>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18"/>
+      <c r="I240" s="18"/>
       <c r="J240" s="1"/>
-      <c r="K240" s="19"/>
-      <c r="L240" s="19"/>
-      <c r="M240" s="19"/>
-      <c r="N240" s="19"/>
-      <c r="O240" s="19"/>
-      <c r="P240" s="19"/>
+      <c r="K240" s="18"/>
+      <c r="L240" s="18"/>
+      <c r="M240" s="18"/>
+      <c r="N240" s="18"/>
+      <c r="O240" s="18"/>
+      <c r="P240" s="18"/>
       <c r="Q240" s="1"/>
-      <c r="R240" s="19"/>
-      <c r="S240" s="19"/>
+      <c r="R240" s="18"/>
+      <c r="S240" s="18"/>
       <c r="T240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18"/>
       <c r="J241" s="1"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-      <c r="O241" s="19"/>
-      <c r="P241" s="19"/>
+      <c r="K241" s="18"/>
+      <c r="L241" s="18"/>
+      <c r="M241" s="18"/>
+      <c r="N241" s="18"/>
+      <c r="O241" s="18"/>
+      <c r="P241" s="18"/>
       <c r="Q241" s="1"/>
-      <c r="R241" s="19"/>
-      <c r="S241" s="19"/>
+      <c r="R241" s="18"/>
+      <c r="S241" s="18"/>
       <c r="T241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="18"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18"/>
       <c r="J242" s="1"/>
-      <c r="K242" s="19"/>
-      <c r="L242" s="19"/>
-      <c r="M242" s="19"/>
-      <c r="N242" s="19"/>
-      <c r="O242" s="19"/>
-      <c r="P242" s="19"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="18"/>
+      <c r="M242" s="18"/>
+      <c r="N242" s="18"/>
+      <c r="O242" s="18"/>
+      <c r="P242" s="18"/>
       <c r="Q242" s="1"/>
-      <c r="R242" s="19"/>
-      <c r="S242" s="19"/>
+      <c r="R242" s="18"/>
+      <c r="S242" s="18"/>
       <c r="T242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="18"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18"/>
       <c r="J243" s="1"/>
-      <c r="K243" s="19"/>
-      <c r="L243" s="19"/>
-      <c r="M243" s="19"/>
-      <c r="N243" s="19"/>
-      <c r="O243" s="19"/>
-      <c r="P243" s="19"/>
+      <c r="K243" s="18"/>
+      <c r="L243" s="18"/>
+      <c r="M243" s="18"/>
+      <c r="N243" s="18"/>
+      <c r="O243" s="18"/>
+      <c r="P243" s="18"/>
       <c r="Q243" s="1"/>
-      <c r="R243" s="19"/>
-      <c r="S243" s="19"/>
+      <c r="R243" s="18"/>
+      <c r="S243" s="18"/>
       <c r="T243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="19"/>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="18"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18"/>
       <c r="J244" s="1"/>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="19"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="18"/>
+      <c r="M244" s="18"/>
+      <c r="N244" s="18"/>
+      <c r="O244" s="18"/>
+      <c r="P244" s="18"/>
       <c r="Q244" s="1"/>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19"/>
+      <c r="R244" s="18"/>
+      <c r="S244" s="18"/>
       <c r="T244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="18"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
       <c r="J245" s="1"/>
-      <c r="K245" s="19"/>
-      <c r="L245" s="19"/>
-      <c r="M245" s="19"/>
-      <c r="N245" s="19"/>
-      <c r="O245" s="19"/>
-      <c r="P245" s="19"/>
+      <c r="K245" s="18"/>
+      <c r="L245" s="18"/>
+      <c r="M245" s="18"/>
+      <c r="N245" s="18"/>
+      <c r="O245" s="18"/>
+      <c r="P245" s="18"/>
       <c r="Q245" s="1"/>
-      <c r="R245" s="19"/>
-      <c r="S245" s="19"/>
+      <c r="R245" s="18"/>
+      <c r="S245" s="18"/>
       <c r="T245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
       <c r="J246" s="1"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="19"/>
-      <c r="N246" s="19"/>
-      <c r="O246" s="19"/>
-      <c r="P246" s="19"/>
+      <c r="K246" s="18"/>
+      <c r="L246" s="18"/>
+      <c r="M246" s="18"/>
+      <c r="N246" s="18"/>
+      <c r="O246" s="18"/>
+      <c r="P246" s="18"/>
       <c r="Q246" s="1"/>
-      <c r="R246" s="19"/>
-      <c r="S246" s="19"/>
+      <c r="R246" s="18"/>
+      <c r="S246" s="18"/>
       <c r="T246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
       <c r="J247" s="1"/>
-      <c r="K247" s="19"/>
-      <c r="L247" s="19"/>
-      <c r="M247" s="19"/>
-      <c r="N247" s="19"/>
-      <c r="O247" s="19"/>
-      <c r="P247" s="19"/>
+      <c r="K247" s="18"/>
+      <c r="L247" s="18"/>
+      <c r="M247" s="18"/>
+      <c r="N247" s="18"/>
+      <c r="O247" s="18"/>
+      <c r="P247" s="18"/>
       <c r="Q247" s="1"/>
-      <c r="R247" s="19"/>
-      <c r="S247" s="19"/>
+      <c r="R247" s="18"/>
+      <c r="S247" s="18"/>
       <c r="T247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
-      <c r="G248" s="19"/>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="18"/>
+      <c r="H248" s="18"/>
+      <c r="I248" s="18"/>
       <c r="J248" s="1"/>
-      <c r="K248" s="19"/>
-      <c r="L248" s="19"/>
-      <c r="M248" s="19"/>
-      <c r="N248" s="19"/>
-      <c r="O248" s="19"/>
-      <c r="P248" s="19"/>
+      <c r="K248" s="18"/>
+      <c r="L248" s="18"/>
+      <c r="M248" s="18"/>
+      <c r="N248" s="18"/>
+      <c r="O248" s="18"/>
+      <c r="P248" s="18"/>
       <c r="Q248" s="1"/>
-      <c r="R248" s="19"/>
-      <c r="S248" s="19"/>
+      <c r="R248" s="18"/>
+      <c r="S248" s="18"/>
       <c r="T248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
-      <c r="G249" s="19"/>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="18"/>
+      <c r="G249" s="18"/>
+      <c r="H249" s="18"/>
+      <c r="I249" s="18"/>
       <c r="J249" s="1"/>
-      <c r="K249" s="19"/>
-      <c r="L249" s="19"/>
-      <c r="M249" s="19"/>
-      <c r="N249" s="19"/>
-      <c r="O249" s="19"/>
-      <c r="P249" s="19"/>
+      <c r="K249" s="18"/>
+      <c r="L249" s="18"/>
+      <c r="M249" s="18"/>
+      <c r="N249" s="18"/>
+      <c r="O249" s="18"/>
+      <c r="P249" s="18"/>
       <c r="Q249" s="1"/>
-      <c r="R249" s="19"/>
-      <c r="S249" s="19"/>
+      <c r="R249" s="18"/>
+      <c r="S249" s="18"/>
       <c r="T249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="18"/>
+      <c r="G250" s="18"/>
+      <c r="H250" s="18"/>
+      <c r="I250" s="18"/>
       <c r="J250" s="1"/>
-      <c r="K250" s="19"/>
-      <c r="L250" s="19"/>
-      <c r="M250" s="19"/>
-      <c r="N250" s="19"/>
-      <c r="O250" s="19"/>
-      <c r="P250" s="19"/>
+      <c r="K250" s="18"/>
+      <c r="L250" s="18"/>
+      <c r="M250" s="18"/>
+      <c r="N250" s="18"/>
+      <c r="O250" s="18"/>
+      <c r="P250" s="18"/>
       <c r="Q250" s="1"/>
-      <c r="R250" s="19"/>
-      <c r="S250" s="19"/>
+      <c r="R250" s="18"/>
+      <c r="S250" s="18"/>
       <c r="T250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="19"/>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="18"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18"/>
       <c r="J251" s="1"/>
-      <c r="K251" s="19"/>
-      <c r="L251" s="19"/>
-      <c r="M251" s="19"/>
-      <c r="N251" s="19"/>
-      <c r="O251" s="19"/>
-      <c r="P251" s="19"/>
+      <c r="K251" s="18"/>
+      <c r="L251" s="18"/>
+      <c r="M251" s="18"/>
+      <c r="N251" s="18"/>
+      <c r="O251" s="18"/>
+      <c r="P251" s="18"/>
       <c r="Q251" s="1"/>
-      <c r="R251" s="19"/>
-      <c r="S251" s="19"/>
+      <c r="R251" s="18"/>
+      <c r="S251" s="18"/>
       <c r="T251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
       <c r="J252" s="1"/>
-      <c r="K252" s="19"/>
-      <c r="L252" s="19"/>
-      <c r="M252" s="19"/>
-      <c r="N252" s="19"/>
-      <c r="O252" s="19"/>
-      <c r="P252" s="19"/>
+      <c r="K252" s="18"/>
+      <c r="L252" s="18"/>
+      <c r="M252" s="18"/>
+      <c r="N252" s="18"/>
+      <c r="O252" s="18"/>
+      <c r="P252" s="18"/>
       <c r="Q252" s="1"/>
-      <c r="R252" s="19"/>
-      <c r="S252" s="19"/>
+      <c r="R252" s="18"/>
+      <c r="S252" s="18"/>
       <c r="T252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="19"/>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="18"/>
       <c r="J253" s="1"/>
-      <c r="K253" s="19"/>
-      <c r="L253" s="19"/>
-      <c r="M253" s="19"/>
-      <c r="N253" s="19"/>
-      <c r="O253" s="19"/>
-      <c r="P253" s="19"/>
+      <c r="K253" s="18"/>
+      <c r="L253" s="18"/>
+      <c r="M253" s="18"/>
+      <c r="N253" s="18"/>
+      <c r="O253" s="18"/>
+      <c r="P253" s="18"/>
       <c r="Q253" s="1"/>
-      <c r="R253" s="19"/>
-      <c r="S253" s="19"/>
+      <c r="R253" s="18"/>
+      <c r="S253" s="18"/>
       <c r="T253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="19"/>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="18"/>
+      <c r="G254" s="18"/>
+      <c r="H254" s="18"/>
+      <c r="I254" s="18"/>
       <c r="J254" s="1"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="19"/>
-      <c r="M254" s="19"/>
-      <c r="N254" s="19"/>
-      <c r="O254" s="19"/>
-      <c r="P254" s="19"/>
+      <c r="K254" s="18"/>
+      <c r="L254" s="18"/>
+      <c r="M254" s="18"/>
+      <c r="N254" s="18"/>
+      <c r="O254" s="18"/>
+      <c r="P254" s="18"/>
       <c r="Q254" s="1"/>
-      <c r="R254" s="19"/>
-      <c r="S254" s="19"/>
+      <c r="R254" s="18"/>
+      <c r="S254" s="18"/>
       <c r="T254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="19"/>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="18"/>
+      <c r="H255" s="18"/>
+      <c r="I255" s="18"/>
       <c r="J255" s="1"/>
-      <c r="K255" s="19"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-      <c r="O255" s="19"/>
-      <c r="P255" s="19"/>
+      <c r="K255" s="18"/>
+      <c r="L255" s="18"/>
+      <c r="M255" s="18"/>
+      <c r="N255" s="18"/>
+      <c r="O255" s="18"/>
+      <c r="P255" s="18"/>
       <c r="Q255" s="1"/>
-      <c r="R255" s="19"/>
-      <c r="S255" s="19"/>
+      <c r="R255" s="18"/>
+      <c r="S255" s="18"/>
       <c r="T255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="19"/>
-      <c r="G256" s="19"/>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="18"/>
+      <c r="H256" s="18"/>
+      <c r="I256" s="18"/>
       <c r="J256" s="1"/>
-      <c r="K256" s="19"/>
-      <c r="L256" s="19"/>
-      <c r="M256" s="19"/>
-      <c r="N256" s="19"/>
-      <c r="O256" s="19"/>
-      <c r="P256" s="19"/>
+      <c r="K256" s="18"/>
+      <c r="L256" s="18"/>
+      <c r="M256" s="18"/>
+      <c r="N256" s="18"/>
+      <c r="O256" s="18"/>
+      <c r="P256" s="18"/>
       <c r="Q256" s="1"/>
-      <c r="R256" s="19"/>
-      <c r="S256" s="19"/>
+      <c r="R256" s="18"/>
+      <c r="S256" s="18"/>
       <c r="T256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="19"/>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
       <c r="J257" s="1"/>
-      <c r="K257" s="19"/>
-      <c r="L257" s="19"/>
-      <c r="M257" s="19"/>
-      <c r="N257" s="19"/>
-      <c r="O257" s="19"/>
-      <c r="P257" s="19"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="18"/>
+      <c r="N257" s="18"/>
+      <c r="O257" s="18"/>
+      <c r="P257" s="18"/>
       <c r="Q257" s="1"/>
-      <c r="R257" s="19"/>
-      <c r="S257" s="19"/>
+      <c r="R257" s="18"/>
+      <c r="S257" s="18"/>
       <c r="T257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="19"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="18"/>
+      <c r="I258" s="18"/>
       <c r="J258" s="1"/>
-      <c r="K258" s="19"/>
-      <c r="L258" s="19"/>
-      <c r="M258" s="19"/>
-      <c r="N258" s="19"/>
-      <c r="O258" s="19"/>
-      <c r="P258" s="19"/>
+      <c r="K258" s="18"/>
+      <c r="L258" s="18"/>
+      <c r="M258" s="18"/>
+      <c r="N258" s="18"/>
+      <c r="O258" s="18"/>
+      <c r="P258" s="18"/>
       <c r="Q258" s="1"/>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19"/>
+      <c r="R258" s="18"/>
+      <c r="S258" s="18"/>
       <c r="T258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="19"/>
-      <c r="G259" s="19"/>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="18"/>
+      <c r="H259" s="18"/>
+      <c r="I259" s="18"/>
       <c r="J259" s="1"/>
-      <c r="K259" s="19"/>
-      <c r="L259" s="19"/>
-      <c r="M259" s="19"/>
-      <c r="N259" s="19"/>
-      <c r="O259" s="19"/>
-      <c r="P259" s="19"/>
+      <c r="K259" s="18"/>
+      <c r="L259" s="18"/>
+      <c r="M259" s="18"/>
+      <c r="N259" s="18"/>
+      <c r="O259" s="18"/>
+      <c r="P259" s="18"/>
       <c r="Q259" s="1"/>
-      <c r="R259" s="19"/>
-      <c r="S259" s="19"/>
+      <c r="R259" s="18"/>
+      <c r="S259" s="18"/>
       <c r="T259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="19"/>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="18"/>
+      <c r="H260" s="18"/>
+      <c r="I260" s="18"/>
       <c r="J260" s="1"/>
-      <c r="K260" s="19"/>
-      <c r="L260" s="19"/>
-      <c r="M260" s="19"/>
-      <c r="N260" s="19"/>
-      <c r="O260" s="19"/>
-      <c r="P260" s="19"/>
+      <c r="K260" s="18"/>
+      <c r="L260" s="18"/>
+      <c r="M260" s="18"/>
+      <c r="N260" s="18"/>
+      <c r="O260" s="18"/>
+      <c r="P260" s="18"/>
       <c r="Q260" s="1"/>
-      <c r="R260" s="19"/>
-      <c r="S260" s="19"/>
+      <c r="R260" s="18"/>
+      <c r="S260" s="18"/>
       <c r="T260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="19"/>
-      <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="18"/>
+      <c r="G261" s="18"/>
+      <c r="H261" s="18"/>
+      <c r="I261" s="18"/>
       <c r="J261" s="1"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="19"/>
-      <c r="M261" s="19"/>
-      <c r="N261" s="19"/>
-      <c r="O261" s="19"/>
-      <c r="P261" s="19"/>
+      <c r="K261" s="18"/>
+      <c r="L261" s="18"/>
+      <c r="M261" s="18"/>
+      <c r="N261" s="18"/>
+      <c r="O261" s="18"/>
+      <c r="P261" s="18"/>
       <c r="Q261" s="1"/>
-      <c r="R261" s="19"/>
-      <c r="S261" s="19"/>
+      <c r="R261" s="18"/>
+      <c r="S261" s="18"/>
       <c r="T261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="19"/>
-      <c r="G262" s="19"/>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="18"/>
+      <c r="G262" s="18"/>
+      <c r="H262" s="18"/>
+      <c r="I262" s="18"/>
       <c r="J262" s="1"/>
-      <c r="K262" s="19"/>
-      <c r="L262" s="19"/>
-      <c r="M262" s="19"/>
-      <c r="N262" s="19"/>
-      <c r="O262" s="19"/>
-      <c r="P262" s="19"/>
+      <c r="K262" s="18"/>
+      <c r="L262" s="18"/>
+      <c r="M262" s="18"/>
+      <c r="N262" s="18"/>
+      <c r="O262" s="18"/>
+      <c r="P262" s="18"/>
       <c r="Q262" s="1"/>
-      <c r="R262" s="19"/>
-      <c r="S262" s="19"/>
+      <c r="R262" s="18"/>
+      <c r="S262" s="18"/>
       <c r="T262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="19"/>
-      <c r="G263" s="19"/>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="18"/>
+      <c r="G263" s="18"/>
+      <c r="H263" s="18"/>
+      <c r="I263" s="18"/>
       <c r="J263" s="1"/>
-      <c r="K263" s="19"/>
-      <c r="L263" s="19"/>
-      <c r="M263" s="19"/>
-      <c r="N263" s="19"/>
-      <c r="O263" s="19"/>
-      <c r="P263" s="19"/>
+      <c r="K263" s="18"/>
+      <c r="L263" s="18"/>
+      <c r="M263" s="18"/>
+      <c r="N263" s="18"/>
+      <c r="O263" s="18"/>
+      <c r="P263" s="18"/>
       <c r="Q263" s="1"/>
-      <c r="R263" s="19"/>
-      <c r="S263" s="19"/>
+      <c r="R263" s="18"/>
+      <c r="S263" s="18"/>
       <c r="T263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="18"/>
+      <c r="H264" s="18"/>
+      <c r="I264" s="18"/>
       <c r="J264" s="1"/>
-      <c r="K264" s="19"/>
-      <c r="L264" s="19"/>
-      <c r="M264" s="19"/>
-      <c r="N264" s="19"/>
-      <c r="O264" s="19"/>
-      <c r="P264" s="19"/>
+      <c r="K264" s="18"/>
+      <c r="L264" s="18"/>
+      <c r="M264" s="18"/>
+      <c r="N264" s="18"/>
+      <c r="O264" s="18"/>
+      <c r="P264" s="18"/>
       <c r="Q264" s="1"/>
-      <c r="R264" s="19"/>
-      <c r="S264" s="19"/>
+      <c r="R264" s="18"/>
+      <c r="S264" s="18"/>
       <c r="T264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="19"/>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="18"/>
+      <c r="H265" s="18"/>
+      <c r="I265" s="18"/>
       <c r="J265" s="1"/>
-      <c r="K265" s="19"/>
-      <c r="L265" s="19"/>
-      <c r="M265" s="19"/>
-      <c r="N265" s="19"/>
-      <c r="O265" s="19"/>
-      <c r="P265" s="19"/>
+      <c r="K265" s="18"/>
+      <c r="L265" s="18"/>
+      <c r="M265" s="18"/>
+      <c r="N265" s="18"/>
+      <c r="O265" s="18"/>
+      <c r="P265" s="18"/>
       <c r="Q265" s="1"/>
-      <c r="R265" s="19"/>
-      <c r="S265" s="19"/>
+      <c r="R265" s="18"/>
+      <c r="S265" s="18"/>
       <c r="T265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="19"/>
-      <c r="G266" s="19"/>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="18"/>
+      <c r="H266" s="18"/>
+      <c r="I266" s="18"/>
       <c r="J266" s="1"/>
-      <c r="K266" s="19"/>
-      <c r="L266" s="19"/>
-      <c r="M266" s="19"/>
-      <c r="N266" s="19"/>
-      <c r="O266" s="19"/>
-      <c r="P266" s="19"/>
+      <c r="K266" s="18"/>
+      <c r="L266" s="18"/>
+      <c r="M266" s="18"/>
+      <c r="N266" s="18"/>
+      <c r="O266" s="18"/>
+      <c r="P266" s="18"/>
       <c r="Q266" s="1"/>
-      <c r="R266" s="19"/>
-      <c r="S266" s="19"/>
+      <c r="R266" s="18"/>
+      <c r="S266" s="18"/>
       <c r="T266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
+      <c r="B267" s="18"/>
+      <c r="C267" s="18"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="18"/>
+      <c r="G267" s="18"/>
+      <c r="H267" s="18"/>
+      <c r="I267" s="18"/>
       <c r="J267" s="1"/>
-      <c r="K267" s="19"/>
-      <c r="L267" s="19"/>
-      <c r="M267" s="19"/>
-      <c r="N267" s="19"/>
-      <c r="O267" s="19"/>
-      <c r="P267" s="19"/>
+      <c r="K267" s="18"/>
+      <c r="L267" s="18"/>
+      <c r="M267" s="18"/>
+      <c r="N267" s="18"/>
+      <c r="O267" s="18"/>
+      <c r="P267" s="18"/>
       <c r="Q267" s="1"/>
-      <c r="R267" s="19"/>
-      <c r="S267" s="19"/>
+      <c r="R267" s="18"/>
+      <c r="S267" s="18"/>
       <c r="T267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="19"/>
-      <c r="G268" s="19"/>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="18"/>
+      <c r="G268" s="18"/>
+      <c r="H268" s="18"/>
+      <c r="I268" s="18"/>
       <c r="J268" s="1"/>
-      <c r="K268" s="19"/>
-      <c r="L268" s="19"/>
-      <c r="M268" s="19"/>
-      <c r="N268" s="19"/>
-      <c r="O268" s="19"/>
-      <c r="P268" s="19"/>
+      <c r="K268" s="18"/>
+      <c r="L268" s="18"/>
+      <c r="M268" s="18"/>
+      <c r="N268" s="18"/>
+      <c r="O268" s="18"/>
+      <c r="P268" s="18"/>
       <c r="Q268" s="1"/>
-      <c r="R268" s="19"/>
-      <c r="S268" s="19"/>
+      <c r="R268" s="18"/>
+      <c r="S268" s="18"/>
       <c r="T268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
       <c r="J269" s="1"/>
-      <c r="K269" s="19"/>
-      <c r="L269" s="19"/>
-      <c r="M269" s="19"/>
-      <c r="N269" s="19"/>
-      <c r="O269" s="19"/>
-      <c r="P269" s="19"/>
+      <c r="K269" s="18"/>
+      <c r="L269" s="18"/>
+      <c r="M269" s="18"/>
+      <c r="N269" s="18"/>
+      <c r="O269" s="18"/>
+      <c r="P269" s="18"/>
       <c r="Q269" s="1"/>
-      <c r="R269" s="19"/>
-      <c r="S269" s="19"/>
+      <c r="R269" s="18"/>
+      <c r="S269" s="18"/>
       <c r="T269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="19"/>
-      <c r="F270" s="19"/>
-      <c r="G270" s="19"/>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="18"/>
+      <c r="H270" s="18"/>
+      <c r="I270" s="18"/>
       <c r="J270" s="1"/>
-      <c r="K270" s="19"/>
-      <c r="L270" s="19"/>
-      <c r="M270" s="19"/>
-      <c r="N270" s="19"/>
-      <c r="O270" s="19"/>
-      <c r="P270" s="19"/>
+      <c r="K270" s="18"/>
+      <c r="L270" s="18"/>
+      <c r="M270" s="18"/>
+      <c r="N270" s="18"/>
+      <c r="O270" s="18"/>
+      <c r="P270" s="18"/>
       <c r="Q270" s="1"/>
-      <c r="R270" s="19"/>
-      <c r="S270" s="19"/>
+      <c r="R270" s="18"/>
+      <c r="S270" s="18"/>
       <c r="T270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="18"/>
+      <c r="H271" s="18"/>
+      <c r="I271" s="18"/>
       <c r="J271" s="1"/>
-      <c r="K271" s="19"/>
-      <c r="L271" s="19"/>
-      <c r="M271" s="19"/>
-      <c r="N271" s="19"/>
-      <c r="O271" s="19"/>
-      <c r="P271" s="19"/>
+      <c r="K271" s="18"/>
+      <c r="L271" s="18"/>
+      <c r="M271" s="18"/>
+      <c r="N271" s="18"/>
+      <c r="O271" s="18"/>
+      <c r="P271" s="18"/>
       <c r="Q271" s="1"/>
-      <c r="R271" s="19"/>
-      <c r="S271" s="19"/>
+      <c r="R271" s="18"/>
+      <c r="S271" s="18"/>
       <c r="T271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
+      <c r="B272" s="18"/>
+      <c r="C272" s="18"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="19"/>
-      <c r="F272" s="19"/>
-      <c r="G272" s="19"/>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="18"/>
+      <c r="H272" s="18"/>
+      <c r="I272" s="18"/>
       <c r="J272" s="1"/>
-      <c r="K272" s="19"/>
-      <c r="L272" s="19"/>
-      <c r="M272" s="19"/>
-      <c r="N272" s="19"/>
-      <c r="O272" s="19"/>
-      <c r="P272" s="19"/>
+      <c r="K272" s="18"/>
+      <c r="L272" s="18"/>
+      <c r="M272" s="18"/>
+      <c r="N272" s="18"/>
+      <c r="O272" s="18"/>
+      <c r="P272" s="18"/>
       <c r="Q272" s="1"/>
-      <c r="R272" s="19"/>
-      <c r="S272" s="19"/>
+      <c r="R272" s="18"/>
+      <c r="S272" s="18"/>
       <c r="T272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
+      <c r="B273" s="18"/>
+      <c r="C273" s="18"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="19"/>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="18"/>
+      <c r="H273" s="18"/>
+      <c r="I273" s="18"/>
       <c r="J273" s="1"/>
-      <c r="K273" s="19"/>
-      <c r="L273" s="19"/>
-      <c r="M273" s="19"/>
-      <c r="N273" s="19"/>
-      <c r="O273" s="19"/>
-      <c r="P273" s="19"/>
+      <c r="K273" s="18"/>
+      <c r="L273" s="18"/>
+      <c r="M273" s="18"/>
+      <c r="N273" s="18"/>
+      <c r="O273" s="18"/>
+      <c r="P273" s="18"/>
       <c r="Q273" s="1"/>
-      <c r="R273" s="19"/>
-      <c r="S273" s="19"/>
+      <c r="R273" s="18"/>
+      <c r="S273" s="18"/>
       <c r="T273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="19"/>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="18"/>
+      <c r="I274" s="18"/>
       <c r="J274" s="1"/>
-      <c r="K274" s="19"/>
-      <c r="L274" s="19"/>
-      <c r="M274" s="19"/>
-      <c r="N274" s="19"/>
-      <c r="O274" s="19"/>
-      <c r="P274" s="19"/>
+      <c r="K274" s="18"/>
+      <c r="L274" s="18"/>
+      <c r="M274" s="18"/>
+      <c r="N274" s="18"/>
+      <c r="O274" s="18"/>
+      <c r="P274" s="18"/>
       <c r="Q274" s="1"/>
-      <c r="R274" s="19"/>
-      <c r="S274" s="19"/>
+      <c r="R274" s="18"/>
+      <c r="S274" s="18"/>
       <c r="T274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="19"/>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="18"/>
+      <c r="H275" s="18"/>
+      <c r="I275" s="18"/>
       <c r="J275" s="1"/>
-      <c r="K275" s="19"/>
-      <c r="L275" s="19"/>
-      <c r="M275" s="19"/>
-      <c r="N275" s="19"/>
-      <c r="O275" s="19"/>
-      <c r="P275" s="19"/>
+      <c r="K275" s="18"/>
+      <c r="L275" s="18"/>
+      <c r="M275" s="18"/>
+      <c r="N275" s="18"/>
+      <c r="O275" s="18"/>
+      <c r="P275" s="18"/>
       <c r="Q275" s="1"/>
-      <c r="R275" s="19"/>
-      <c r="S275" s="19"/>
+      <c r="R275" s="18"/>
+      <c r="S275" s="18"/>
       <c r="T275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="19"/>
-      <c r="G276" s="19"/>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="18"/>
+      <c r="G276" s="18"/>
+      <c r="H276" s="18"/>
+      <c r="I276" s="18"/>
       <c r="J276" s="1"/>
-      <c r="K276" s="19"/>
-      <c r="L276" s="19"/>
-      <c r="M276" s="19"/>
-      <c r="N276" s="19"/>
-      <c r="O276" s="19"/>
-      <c r="P276" s="19"/>
+      <c r="K276" s="18"/>
+      <c r="L276" s="18"/>
+      <c r="M276" s="18"/>
+      <c r="N276" s="18"/>
+      <c r="O276" s="18"/>
+      <c r="P276" s="18"/>
       <c r="Q276" s="1"/>
-      <c r="R276" s="19"/>
-      <c r="S276" s="19"/>
+      <c r="R276" s="18"/>
+      <c r="S276" s="18"/>
       <c r="T276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
+      <c r="B277" s="18"/>
+      <c r="C277" s="18"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="19"/>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="18"/>
+      <c r="G277" s="18"/>
+      <c r="H277" s="18"/>
+      <c r="I277" s="18"/>
       <c r="J277" s="1"/>
-      <c r="K277" s="19"/>
-      <c r="L277" s="19"/>
-      <c r="M277" s="19"/>
-      <c r="N277" s="19"/>
-      <c r="O277" s="19"/>
-      <c r="P277" s="19"/>
+      <c r="K277" s="18"/>
+      <c r="L277" s="18"/>
+      <c r="M277" s="18"/>
+      <c r="N277" s="18"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18"/>
       <c r="Q277" s="1"/>
-      <c r="R277" s="19"/>
-      <c r="S277" s="19"/>
+      <c r="R277" s="18"/>
+      <c r="S277" s="18"/>
       <c r="T277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
+      <c r="B278" s="18"/>
+      <c r="C278" s="18"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="19"/>
-      <c r="F278" s="19"/>
-      <c r="G278" s="19"/>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="18"/>
+      <c r="H278" s="18"/>
+      <c r="I278" s="18"/>
       <c r="J278" s="1"/>
-      <c r="K278" s="19"/>
-      <c r="L278" s="19"/>
-      <c r="M278" s="19"/>
-      <c r="N278" s="19"/>
-      <c r="O278" s="19"/>
-      <c r="P278" s="19"/>
+      <c r="K278" s="18"/>
+      <c r="L278" s="18"/>
+      <c r="M278" s="18"/>
+      <c r="N278" s="18"/>
+      <c r="O278" s="18"/>
+      <c r="P278" s="18"/>
       <c r="Q278" s="1"/>
-      <c r="R278" s="19"/>
-      <c r="S278" s="19"/>
+      <c r="R278" s="18"/>
+      <c r="S278" s="18"/>
       <c r="T278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="19"/>
-      <c r="F279" s="19"/>
-      <c r="G279" s="19"/>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="18"/>
+      <c r="H279" s="18"/>
+      <c r="I279" s="18"/>
       <c r="J279" s="1"/>
-      <c r="K279" s="19"/>
-      <c r="L279" s="19"/>
-      <c r="M279" s="19"/>
-      <c r="N279" s="19"/>
-      <c r="O279" s="19"/>
-      <c r="P279" s="19"/>
+      <c r="K279" s="18"/>
+      <c r="L279" s="18"/>
+      <c r="M279" s="18"/>
+      <c r="N279" s="18"/>
+      <c r="O279" s="18"/>
+      <c r="P279" s="18"/>
       <c r="Q279" s="1"/>
-      <c r="R279" s="19"/>
-      <c r="S279" s="19"/>
+      <c r="R279" s="18"/>
+      <c r="S279" s="18"/>
       <c r="T279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="19"/>
-      <c r="F280" s="19"/>
-      <c r="G280" s="19"/>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="18"/>
+      <c r="G280" s="18"/>
+      <c r="H280" s="18"/>
+      <c r="I280" s="18"/>
       <c r="J280" s="1"/>
-      <c r="K280" s="19"/>
-      <c r="L280" s="19"/>
-      <c r="M280" s="19"/>
-      <c r="N280" s="19"/>
-      <c r="O280" s="19"/>
-      <c r="P280" s="19"/>
+      <c r="K280" s="18"/>
+      <c r="L280" s="18"/>
+      <c r="M280" s="18"/>
+      <c r="N280" s="18"/>
+      <c r="O280" s="18"/>
+      <c r="P280" s="18"/>
       <c r="Q280" s="1"/>
-      <c r="R280" s="19"/>
-      <c r="S280" s="19"/>
+      <c r="R280" s="18"/>
+      <c r="S280" s="18"/>
       <c r="T280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="19"/>
-      <c r="G281" s="19"/>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="18"/>
+      <c r="G281" s="18"/>
+      <c r="H281" s="18"/>
+      <c r="I281" s="18"/>
       <c r="J281" s="1"/>
-      <c r="K281" s="19"/>
-      <c r="L281" s="19"/>
-      <c r="M281" s="19"/>
-      <c r="N281" s="19"/>
-      <c r="O281" s="19"/>
-      <c r="P281" s="19"/>
+      <c r="K281" s="18"/>
+      <c r="L281" s="18"/>
+      <c r="M281" s="18"/>
+      <c r="N281" s="18"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
       <c r="Q281" s="1"/>
-      <c r="R281" s="19"/>
-      <c r="S281" s="19"/>
+      <c r="R281" s="18"/>
+      <c r="S281" s="18"/>
       <c r="T281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
+      <c r="B282" s="18"/>
+      <c r="C282" s="18"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="18"/>
+      <c r="H282" s="18"/>
+      <c r="I282" s="18"/>
       <c r="J282" s="1"/>
-      <c r="K282" s="19"/>
-      <c r="L282" s="19"/>
-      <c r="M282" s="19"/>
-      <c r="N282" s="19"/>
-      <c r="O282" s="19"/>
-      <c r="P282" s="19"/>
+      <c r="K282" s="18"/>
+      <c r="L282" s="18"/>
+      <c r="M282" s="18"/>
+      <c r="N282" s="18"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
       <c r="Q282" s="1"/>
-      <c r="R282" s="19"/>
-      <c r="S282" s="19"/>
+      <c r="R282" s="18"/>
+      <c r="S282" s="18"/>
       <c r="T282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
+      <c r="B283" s="18"/>
+      <c r="C283" s="18"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="19"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="18"/>
+      <c r="H283" s="18"/>
+      <c r="I283" s="18"/>
       <c r="J283" s="1"/>
-      <c r="K283" s="19"/>
-      <c r="L283" s="19"/>
-      <c r="M283" s="19"/>
-      <c r="N283" s="19"/>
-      <c r="O283" s="19"/>
-      <c r="P283" s="19"/>
+      <c r="K283" s="18"/>
+      <c r="L283" s="18"/>
+      <c r="M283" s="18"/>
+      <c r="N283" s="18"/>
+      <c r="O283" s="18"/>
+      <c r="P283" s="18"/>
       <c r="Q283" s="1"/>
-      <c r="R283" s="19"/>
-      <c r="S283" s="19"/>
+      <c r="R283" s="18"/>
+      <c r="S283" s="18"/>
       <c r="T283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="19"/>
-      <c r="F284" s="19"/>
-      <c r="G284" s="19"/>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
       <c r="J284" s="1"/>
-      <c r="K284" s="19"/>
-      <c r="L284" s="19"/>
-      <c r="M284" s="19"/>
-      <c r="N284" s="19"/>
-      <c r="O284" s="19"/>
-      <c r="P284" s="19"/>
+      <c r="K284" s="18"/>
+      <c r="L284" s="18"/>
+      <c r="M284" s="18"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
       <c r="Q284" s="1"/>
-      <c r="R284" s="19"/>
-      <c r="S284" s="19"/>
+      <c r="R284" s="18"/>
+      <c r="S284" s="18"/>
       <c r="T284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="19"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="18"/>
+      <c r="G285" s="18"/>
+      <c r="H285" s="18"/>
+      <c r="I285" s="18"/>
       <c r="J285" s="1"/>
-      <c r="K285" s="19"/>
-      <c r="L285" s="19"/>
-      <c r="M285" s="19"/>
-      <c r="N285" s="19"/>
-      <c r="O285" s="19"/>
-      <c r="P285" s="19"/>
+      <c r="K285" s="18"/>
+      <c r="L285" s="18"/>
+      <c r="M285" s="18"/>
+      <c r="N285" s="18"/>
+      <c r="O285" s="18"/>
+      <c r="P285" s="18"/>
       <c r="Q285" s="1"/>
-      <c r="R285" s="19"/>
-      <c r="S285" s="19"/>
+      <c r="R285" s="18"/>
+      <c r="S285" s="18"/>
       <c r="T285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="19"/>
-      <c r="F286" s="19"/>
-      <c r="G286" s="19"/>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="18"/>
+      <c r="H286" s="18"/>
+      <c r="I286" s="18"/>
       <c r="J286" s="1"/>
-      <c r="K286" s="19"/>
-      <c r="L286" s="19"/>
-      <c r="M286" s="19"/>
-      <c r="N286" s="19"/>
-      <c r="O286" s="19"/>
-      <c r="P286" s="19"/>
+      <c r="K286" s="18"/>
+      <c r="L286" s="18"/>
+      <c r="M286" s="18"/>
+      <c r="N286" s="18"/>
+      <c r="O286" s="18"/>
+      <c r="P286" s="18"/>
       <c r="Q286" s="1"/>
-      <c r="R286" s="19"/>
-      <c r="S286" s="19"/>
+      <c r="R286" s="18"/>
+      <c r="S286" s="18"/>
       <c r="T286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="19"/>
-      <c r="F287" s="19"/>
-      <c r="G287" s="19"/>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="18"/>
+      <c r="G287" s="18"/>
+      <c r="H287" s="18"/>
+      <c r="I287" s="18"/>
       <c r="J287" s="1"/>
-      <c r="K287" s="19"/>
-      <c r="L287" s="19"/>
-      <c r="M287" s="19"/>
-      <c r="N287" s="19"/>
-      <c r="O287" s="19"/>
-      <c r="P287" s="19"/>
+      <c r="K287" s="18"/>
+      <c r="L287" s="18"/>
+      <c r="M287" s="18"/>
+      <c r="N287" s="18"/>
+      <c r="O287" s="18"/>
+      <c r="P287" s="18"/>
       <c r="Q287" s="1"/>
-      <c r="R287" s="19"/>
-      <c r="S287" s="19"/>
+      <c r="R287" s="18"/>
+      <c r="S287" s="18"/>
       <c r="T287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="19"/>
-      <c r="G288" s="19"/>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="18"/>
+      <c r="G288" s="18"/>
+      <c r="H288" s="18"/>
+      <c r="I288" s="18"/>
       <c r="J288" s="1"/>
-      <c r="K288" s="19"/>
-      <c r="L288" s="19"/>
-      <c r="M288" s="19"/>
-      <c r="N288" s="19"/>
-      <c r="O288" s="19"/>
-      <c r="P288" s="19"/>
+      <c r="K288" s="18"/>
+      <c r="L288" s="18"/>
+      <c r="M288" s="18"/>
+      <c r="N288" s="18"/>
+      <c r="O288" s="18"/>
+      <c r="P288" s="18"/>
       <c r="Q288" s="1"/>
-      <c r="R288" s="19"/>
-      <c r="S288" s="19"/>
+      <c r="R288" s="18"/>
+      <c r="S288" s="18"/>
       <c r="T288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="18"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="19"/>
-      <c r="F289" s="19"/>
-      <c r="G289" s="19"/>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="18"/>
+      <c r="G289" s="18"/>
+      <c r="H289" s="18"/>
+      <c r="I289" s="18"/>
       <c r="J289" s="1"/>
-      <c r="K289" s="19"/>
-      <c r="L289" s="19"/>
-      <c r="M289" s="19"/>
-      <c r="N289" s="19"/>
-      <c r="O289" s="19"/>
-      <c r="P289" s="19"/>
+      <c r="K289" s="18"/>
+      <c r="L289" s="18"/>
+      <c r="M289" s="18"/>
+      <c r="N289" s="18"/>
+      <c r="O289" s="18"/>
+      <c r="P289" s="18"/>
       <c r="Q289" s="1"/>
-      <c r="R289" s="19"/>
-      <c r="S289" s="19"/>
+      <c r="R289" s="18"/>
+      <c r="S289" s="18"/>
       <c r="T289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="19"/>
-      <c r="F290" s="19"/>
-      <c r="G290" s="19"/>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="18"/>
+      <c r="H290" s="18"/>
+      <c r="I290" s="18"/>
       <c r="J290" s="1"/>
-      <c r="K290" s="19"/>
-      <c r="L290" s="19"/>
-      <c r="M290" s="19"/>
-      <c r="N290" s="19"/>
-      <c r="O290" s="19"/>
-      <c r="P290" s="19"/>
+      <c r="K290" s="18"/>
+      <c r="L290" s="18"/>
+      <c r="M290" s="18"/>
+      <c r="N290" s="18"/>
+      <c r="O290" s="18"/>
+      <c r="P290" s="18"/>
       <c r="Q290" s="1"/>
-      <c r="R290" s="19"/>
-      <c r="S290" s="19"/>
+      <c r="R290" s="18"/>
+      <c r="S290" s="18"/>
       <c r="T290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="19"/>
-      <c r="G291" s="19"/>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
+      <c r="E291" s="18"/>
+      <c r="F291" s="18"/>
+      <c r="G291" s="18"/>
+      <c r="H291" s="18"/>
+      <c r="I291" s="18"/>
       <c r="J291" s="1"/>
-      <c r="K291" s="19"/>
-      <c r="L291" s="19"/>
-      <c r="M291" s="19"/>
-      <c r="N291" s="19"/>
-      <c r="O291" s="19"/>
-      <c r="P291" s="19"/>
+      <c r="K291" s="18"/>
+      <c r="L291" s="18"/>
+      <c r="M291" s="18"/>
+      <c r="N291" s="18"/>
+      <c r="O291" s="18"/>
+      <c r="P291" s="18"/>
       <c r="Q291" s="1"/>
-      <c r="R291" s="19"/>
-      <c r="S291" s="19"/>
+      <c r="R291" s="18"/>
+      <c r="S291" s="18"/>
       <c r="T291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="18"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="19"/>
-      <c r="G292" s="19"/>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="18"/>
+      <c r="G292" s="18"/>
+      <c r="H292" s="18"/>
+      <c r="I292" s="18"/>
       <c r="J292" s="1"/>
-      <c r="K292" s="19"/>
-      <c r="L292" s="19"/>
-      <c r="M292" s="19"/>
-      <c r="N292" s="19"/>
-      <c r="O292" s="19"/>
-      <c r="P292" s="19"/>
+      <c r="K292" s="18"/>
+      <c r="L292" s="18"/>
+      <c r="M292" s="18"/>
+      <c r="N292" s="18"/>
+      <c r="O292" s="18"/>
+      <c r="P292" s="18"/>
       <c r="Q292" s="1"/>
-      <c r="R292" s="19"/>
-      <c r="S292" s="19"/>
+      <c r="R292" s="18"/>
+      <c r="S292" s="18"/>
       <c r="T292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
+      <c r="B293" s="18"/>
+      <c r="C293" s="18"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="19"/>
-      <c r="F293" s="19"/>
-      <c r="G293" s="19"/>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="18"/>
+      <c r="H293" s="18"/>
+      <c r="I293" s="18"/>
       <c r="J293" s="1"/>
-      <c r="K293" s="19"/>
-      <c r="L293" s="19"/>
-      <c r="M293" s="19"/>
-      <c r="N293" s="19"/>
-      <c r="O293" s="19"/>
-      <c r="P293" s="19"/>
+      <c r="K293" s="18"/>
+      <c r="L293" s="18"/>
+      <c r="M293" s="18"/>
+      <c r="N293" s="18"/>
+      <c r="O293" s="18"/>
+      <c r="P293" s="18"/>
       <c r="Q293" s="1"/>
-      <c r="R293" s="19"/>
-      <c r="S293" s="19"/>
+      <c r="R293" s="18"/>
+      <c r="S293" s="18"/>
       <c r="T293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
+      <c r="B294" s="18"/>
+      <c r="C294" s="18"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="19"/>
-      <c r="F294" s="19"/>
-      <c r="G294" s="19"/>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="18"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
       <c r="J294" s="1"/>
-      <c r="K294" s="19"/>
-      <c r="L294" s="19"/>
-      <c r="M294" s="19"/>
-      <c r="N294" s="19"/>
-      <c r="O294" s="19"/>
-      <c r="P294" s="19"/>
+      <c r="K294" s="18"/>
+      <c r="L294" s="18"/>
+      <c r="M294" s="18"/>
+      <c r="N294" s="18"/>
+      <c r="O294" s="18"/>
+      <c r="P294" s="18"/>
       <c r="Q294" s="1"/>
-      <c r="R294" s="19"/>
-      <c r="S294" s="19"/>
+      <c r="R294" s="18"/>
+      <c r="S294" s="18"/>
       <c r="T294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
-      <c r="B295" s="19"/>
-      <c r="C295" s="19"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="19"/>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="18"/>
+      <c r="I295" s="18"/>
       <c r="J295" s="1"/>
-      <c r="K295" s="19"/>
-      <c r="L295" s="19"/>
-      <c r="M295" s="19"/>
-      <c r="N295" s="19"/>
-      <c r="O295" s="19"/>
-      <c r="P295" s="19"/>
+      <c r="K295" s="18"/>
+      <c r="L295" s="18"/>
+      <c r="M295" s="18"/>
+      <c r="N295" s="18"/>
+      <c r="O295" s="18"/>
+      <c r="P295" s="18"/>
       <c r="Q295" s="1"/>
-      <c r="R295" s="19"/>
-      <c r="S295" s="19"/>
+      <c r="R295" s="18"/>
+      <c r="S295" s="18"/>
       <c r="T295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="19"/>
-      <c r="G296" s="19"/>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="18"/>
+      <c r="G296" s="18"/>
+      <c r="H296" s="18"/>
+      <c r="I296" s="18"/>
       <c r="J296" s="1"/>
-      <c r="K296" s="19"/>
-      <c r="L296" s="19"/>
-      <c r="M296" s="19"/>
-      <c r="N296" s="19"/>
-      <c r="O296" s="19"/>
-      <c r="P296" s="19"/>
+      <c r="K296" s="18"/>
+      <c r="L296" s="18"/>
+      <c r="M296" s="18"/>
+      <c r="N296" s="18"/>
+      <c r="O296" s="18"/>
+      <c r="P296" s="18"/>
       <c r="Q296" s="1"/>
-      <c r="R296" s="19"/>
-      <c r="S296" s="19"/>
+      <c r="R296" s="18"/>
+      <c r="S296" s="18"/>
       <c r="T296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="19"/>
-      <c r="G297" s="19"/>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="18"/>
+      <c r="G297" s="18"/>
+      <c r="H297" s="18"/>
+      <c r="I297" s="18"/>
       <c r="J297" s="1"/>
-      <c r="K297" s="19"/>
-      <c r="L297" s="19"/>
-      <c r="M297" s="19"/>
-      <c r="N297" s="19"/>
-      <c r="O297" s="19"/>
-      <c r="P297" s="19"/>
+      <c r="K297" s="18"/>
+      <c r="L297" s="18"/>
+      <c r="M297" s="18"/>
+      <c r="N297" s="18"/>
+      <c r="O297" s="18"/>
+      <c r="P297" s="18"/>
       <c r="Q297" s="1"/>
-      <c r="R297" s="19"/>
-      <c r="S297" s="19"/>
+      <c r="R297" s="18"/>
+      <c r="S297" s="18"/>
       <c r="T297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
+      <c r="B298" s="18"/>
+      <c r="C298" s="18"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="19"/>
-      <c r="G298" s="19"/>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="18"/>
+      <c r="G298" s="18"/>
+      <c r="H298" s="18"/>
+      <c r="I298" s="18"/>
       <c r="J298" s="1"/>
-      <c r="K298" s="19"/>
-      <c r="L298" s="19"/>
-      <c r="M298" s="19"/>
-      <c r="N298" s="19"/>
-      <c r="O298" s="19"/>
-      <c r="P298" s="19"/>
+      <c r="K298" s="18"/>
+      <c r="L298" s="18"/>
+      <c r="M298" s="18"/>
+      <c r="N298" s="18"/>
+      <c r="O298" s="18"/>
+      <c r="P298" s="18"/>
       <c r="Q298" s="1"/>
-      <c r="R298" s="19"/>
-      <c r="S298" s="19"/>
+      <c r="R298" s="18"/>
+      <c r="S298" s="18"/>
       <c r="T298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
+      <c r="B299" s="18"/>
+      <c r="C299" s="18"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="19"/>
-      <c r="G299" s="19"/>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="18"/>
+      <c r="G299" s="18"/>
+      <c r="H299" s="18"/>
+      <c r="I299" s="18"/>
       <c r="J299" s="1"/>
-      <c r="K299" s="19"/>
-      <c r="L299" s="19"/>
-      <c r="M299" s="19"/>
-      <c r="N299" s="19"/>
-      <c r="O299" s="19"/>
-      <c r="P299" s="19"/>
+      <c r="K299" s="18"/>
+      <c r="L299" s="18"/>
+      <c r="M299" s="18"/>
+      <c r="N299" s="18"/>
+      <c r="O299" s="18"/>
+      <c r="P299" s="18"/>
       <c r="Q299" s="1"/>
-      <c r="R299" s="19"/>
-      <c r="S299" s="19"/>
+      <c r="R299" s="18"/>
+      <c r="S299" s="18"/>
       <c r="T299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="19"/>
-      <c r="C300" s="19"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="19"/>
-      <c r="F300" s="19"/>
-      <c r="G300" s="19"/>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="18"/>
+      <c r="G300" s="18"/>
+      <c r="H300" s="18"/>
+      <c r="I300" s="18"/>
       <c r="J300" s="1"/>
-      <c r="K300" s="19"/>
-      <c r="L300" s="19"/>
-      <c r="M300" s="19"/>
-      <c r="N300" s="19"/>
-      <c r="O300" s="19"/>
-      <c r="P300" s="19"/>
+      <c r="K300" s="18"/>
+      <c r="L300" s="18"/>
+      <c r="M300" s="18"/>
+      <c r="N300" s="18"/>
+      <c r="O300" s="18"/>
+      <c r="P300" s="18"/>
       <c r="Q300" s="1"/>
-      <c r="R300" s="19"/>
-      <c r="S300" s="19"/>
+      <c r="R300" s="18"/>
+      <c r="S300" s="18"/>
       <c r="T300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="19"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="19"/>
-      <c r="F301" s="19"/>
-      <c r="G301" s="19"/>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="18"/>
+      <c r="G301" s="18"/>
+      <c r="H301" s="18"/>
+      <c r="I301" s="18"/>
       <c r="J301" s="1"/>
-      <c r="K301" s="19"/>
-      <c r="L301" s="19"/>
-      <c r="M301" s="19"/>
-      <c r="N301" s="19"/>
-      <c r="O301" s="19"/>
-      <c r="P301" s="19"/>
+      <c r="K301" s="18"/>
+      <c r="L301" s="18"/>
+      <c r="M301" s="18"/>
+      <c r="N301" s="18"/>
+      <c r="O301" s="18"/>
+      <c r="P301" s="18"/>
       <c r="Q301" s="1"/>
-      <c r="R301" s="19"/>
-      <c r="S301" s="19"/>
+      <c r="R301" s="18"/>
+      <c r="S301" s="18"/>
       <c r="T301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="19"/>
-      <c r="G302" s="19"/>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="18"/>
+      <c r="H302" s="18"/>
+      <c r="I302" s="18"/>
       <c r="J302" s="1"/>
-      <c r="K302" s="19"/>
-      <c r="L302" s="19"/>
-      <c r="M302" s="19"/>
-      <c r="N302" s="19"/>
-      <c r="O302" s="19"/>
-      <c r="P302" s="19"/>
+      <c r="K302" s="18"/>
+      <c r="L302" s="18"/>
+      <c r="M302" s="18"/>
+      <c r="N302" s="18"/>
+      <c r="O302" s="18"/>
+      <c r="P302" s="18"/>
       <c r="Q302" s="1"/>
-      <c r="R302" s="19"/>
-      <c r="S302" s="19"/>
+      <c r="R302" s="18"/>
+      <c r="S302" s="18"/>
       <c r="T302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
+      <c r="B303" s="18"/>
+      <c r="C303" s="18"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="19"/>
-      <c r="F303" s="19"/>
-      <c r="G303" s="19"/>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
+      <c r="E303" s="18"/>
+      <c r="F303" s="18"/>
+      <c r="G303" s="18"/>
+      <c r="H303" s="18"/>
+      <c r="I303" s="18"/>
       <c r="J303" s="1"/>
-      <c r="K303" s="19"/>
-      <c r="L303" s="19"/>
-      <c r="M303" s="19"/>
-      <c r="N303" s="19"/>
-      <c r="O303" s="19"/>
-      <c r="P303" s="19"/>
+      <c r="K303" s="18"/>
+      <c r="L303" s="18"/>
+      <c r="M303" s="18"/>
+      <c r="N303" s="18"/>
+      <c r="O303" s="18"/>
+      <c r="P303" s="18"/>
       <c r="Q303" s="1"/>
-      <c r="R303" s="19"/>
-      <c r="S303" s="19"/>
+      <c r="R303" s="18"/>
+      <c r="S303" s="18"/>
       <c r="T303" s="1"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
+      <c r="B304" s="18"/>
+      <c r="C304" s="18"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="18"/>
+      <c r="G304" s="18"/>
+      <c r="H304" s="18"/>
+      <c r="I304" s="18"/>
       <c r="J304" s="1"/>
-      <c r="K304" s="19"/>
-      <c r="L304" s="19"/>
-      <c r="M304" s="19"/>
-      <c r="N304" s="19"/>
-      <c r="O304" s="19"/>
-      <c r="P304" s="19"/>
+      <c r="K304" s="18"/>
+      <c r="L304" s="18"/>
+      <c r="M304" s="18"/>
+      <c r="N304" s="18"/>
+      <c r="O304" s="18"/>
+      <c r="P304" s="18"/>
       <c r="Q304" s="1"/>
-      <c r="R304" s="19"/>
-      <c r="S304" s="19"/>
+      <c r="R304" s="18"/>
+      <c r="S304" s="18"/>
       <c r="T304" s="1"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="18"/>
+      <c r="H305" s="18"/>
+      <c r="I305" s="18"/>
       <c r="J305" s="1"/>
-      <c r="K305" s="19"/>
-      <c r="L305" s="19"/>
-      <c r="M305" s="19"/>
-      <c r="N305" s="19"/>
-      <c r="O305" s="19"/>
-      <c r="P305" s="19"/>
+      <c r="K305" s="18"/>
+      <c r="L305" s="18"/>
+      <c r="M305" s="18"/>
+      <c r="N305" s="18"/>
+      <c r="O305" s="18"/>
+      <c r="P305" s="18"/>
       <c r="Q305" s="1"/>
-      <c r="R305" s="19"/>
-      <c r="S305" s="19"/>
+      <c r="R305" s="18"/>
+      <c r="S305" s="18"/>
       <c r="T305" s="1"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
-      <c r="G306" s="19"/>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="18"/>
+      <c r="H306" s="18"/>
+      <c r="I306" s="18"/>
       <c r="J306" s="1"/>
-      <c r="K306" s="19"/>
-      <c r="L306" s="19"/>
-      <c r="M306" s="19"/>
-      <c r="N306" s="19"/>
-      <c r="O306" s="19"/>
-      <c r="P306" s="19"/>
+      <c r="K306" s="18"/>
+      <c r="L306" s="18"/>
+      <c r="M306" s="18"/>
+      <c r="N306" s="18"/>
+      <c r="O306" s="18"/>
+      <c r="P306" s="18"/>
       <c r="Q306" s="1"/>
-      <c r="R306" s="19"/>
-      <c r="S306" s="19"/>
+      <c r="R306" s="18"/>
+      <c r="S306" s="18"/>
       <c r="T306" s="1"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="19"/>
-      <c r="G307" s="19"/>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="18"/>
+      <c r="H307" s="18"/>
+      <c r="I307" s="18"/>
       <c r="J307" s="1"/>
-      <c r="K307" s="19"/>
-      <c r="L307" s="19"/>
-      <c r="M307" s="19"/>
-      <c r="N307" s="19"/>
-      <c r="O307" s="19"/>
-      <c r="P307" s="19"/>
+      <c r="K307" s="18"/>
+      <c r="L307" s="18"/>
+      <c r="M307" s="18"/>
+      <c r="N307" s="18"/>
+      <c r="O307" s="18"/>
+      <c r="P307" s="18"/>
       <c r="Q307" s="1"/>
-      <c r="R307" s="19"/>
-      <c r="S307" s="19"/>
+      <c r="R307" s="18"/>
+      <c r="S307" s="18"/>
       <c r="T307" s="1"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="18"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="19"/>
-      <c r="F308" s="19"/>
-      <c r="G308" s="19"/>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
       <c r="J308" s="1"/>
-      <c r="K308" s="19"/>
-      <c r="L308" s="19"/>
-      <c r="M308" s="19"/>
-      <c r="N308" s="19"/>
-      <c r="O308" s="19"/>
-      <c r="P308" s="19"/>
+      <c r="K308" s="18"/>
+      <c r="L308" s="18"/>
+      <c r="M308" s="18"/>
+      <c r="N308" s="18"/>
+      <c r="O308" s="18"/>
+      <c r="P308" s="18"/>
       <c r="Q308" s="1"/>
-      <c r="R308" s="19"/>
-      <c r="S308" s="19"/>
+      <c r="R308" s="18"/>
+      <c r="S308" s="18"/>
       <c r="T308" s="1"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
+      <c r="B309" s="18"/>
+      <c r="C309" s="18"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="19"/>
-      <c r="G309" s="19"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="18"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
       <c r="J309" s="1"/>
-      <c r="K309" s="19"/>
-      <c r="L309" s="19"/>
-      <c r="M309" s="19"/>
-      <c r="N309" s="19"/>
-      <c r="O309" s="19"/>
-      <c r="P309" s="19"/>
+      <c r="K309" s="18"/>
+      <c r="L309" s="18"/>
+      <c r="M309" s="18"/>
+      <c r="N309" s="18"/>
+      <c r="O309" s="18"/>
+      <c r="P309" s="18"/>
       <c r="Q309" s="1"/>
-      <c r="R309" s="19"/>
-      <c r="S309" s="19"/>
+      <c r="R309" s="18"/>
+      <c r="S309" s="18"/>
       <c r="T309" s="1"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="19"/>
-      <c r="G310" s="19"/>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
       <c r="J310" s="1"/>
-      <c r="K310" s="19"/>
-      <c r="L310" s="19"/>
-      <c r="M310" s="19"/>
-      <c r="N310" s="19"/>
-      <c r="O310" s="19"/>
-      <c r="P310" s="19"/>
+      <c r="K310" s="18"/>
+      <c r="L310" s="18"/>
+      <c r="M310" s="18"/>
+      <c r="N310" s="18"/>
+      <c r="O310" s="18"/>
+      <c r="P310" s="18"/>
       <c r="Q310" s="1"/>
-      <c r="R310" s="19"/>
-      <c r="S310" s="19"/>
+      <c r="R310" s="18"/>
+      <c r="S310" s="18"/>
       <c r="T310" s="1"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
+      <c r="E311" s="18"/>
+      <c r="F311" s="18"/>
+      <c r="G311" s="18"/>
+      <c r="H311" s="18"/>
+      <c r="I311" s="18"/>
       <c r="J311" s="1"/>
-      <c r="K311" s="19"/>
-      <c r="L311" s="19"/>
-      <c r="M311" s="19"/>
-      <c r="N311" s="19"/>
-      <c r="O311" s="19"/>
-      <c r="P311" s="19"/>
+      <c r="K311" s="18"/>
+      <c r="L311" s="18"/>
+      <c r="M311" s="18"/>
+      <c r="N311" s="18"/>
+      <c r="O311" s="18"/>
+      <c r="P311" s="18"/>
       <c r="Q311" s="1"/>
-      <c r="R311" s="19"/>
-      <c r="S311" s="19"/>
+      <c r="R311" s="18"/>
+      <c r="S311" s="18"/>
       <c r="T311" s="1"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="19"/>
-      <c r="G312" s="19"/>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="18"/>
+      <c r="G312" s="18"/>
+      <c r="H312" s="18"/>
+      <c r="I312" s="18"/>
       <c r="J312" s="1"/>
-      <c r="K312" s="19"/>
-      <c r="L312" s="19"/>
-      <c r="M312" s="19"/>
-      <c r="N312" s="19"/>
-      <c r="O312" s="19"/>
-      <c r="P312" s="19"/>
+      <c r="K312" s="18"/>
+      <c r="L312" s="18"/>
+      <c r="M312" s="18"/>
+      <c r="N312" s="18"/>
+      <c r="O312" s="18"/>
+      <c r="P312" s="18"/>
       <c r="Q312" s="1"/>
-      <c r="R312" s="19"/>
-      <c r="S312" s="19"/>
+      <c r="R312" s="18"/>
+      <c r="S312" s="18"/>
       <c r="T312" s="1"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
+      <c r="B313" s="18"/>
+      <c r="C313" s="18"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="19"/>
-      <c r="F313" s="19"/>
-      <c r="G313" s="19"/>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="18"/>
+      <c r="H313" s="18"/>
+      <c r="I313" s="18"/>
       <c r="J313" s="1"/>
-      <c r="K313" s="19"/>
-      <c r="L313" s="19"/>
-      <c r="M313" s="19"/>
-      <c r="N313" s="19"/>
-      <c r="O313" s="19"/>
-      <c r="P313" s="19"/>
+      <c r="K313" s="18"/>
+      <c r="L313" s="18"/>
+      <c r="M313" s="18"/>
+      <c r="N313" s="18"/>
+      <c r="O313" s="18"/>
+      <c r="P313" s="18"/>
       <c r="Q313" s="1"/>
-      <c r="R313" s="19"/>
-      <c r="S313" s="19"/>
+      <c r="R313" s="18"/>
+      <c r="S313" s="18"/>
       <c r="T313" s="1"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
-      <c r="B314" s="19"/>
-      <c r="C314" s="19"/>
+      <c r="B314" s="18"/>
+      <c r="C314" s="18"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="19"/>
-      <c r="G314" s="19"/>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
+      <c r="H314" s="18"/>
+      <c r="I314" s="18"/>
       <c r="J314" s="1"/>
-      <c r="K314" s="19"/>
-      <c r="L314" s="19"/>
-      <c r="M314" s="19"/>
-      <c r="N314" s="19"/>
-      <c r="O314" s="19"/>
-      <c r="P314" s="19"/>
+      <c r="K314" s="18"/>
+      <c r="L314" s="18"/>
+      <c r="M314" s="18"/>
+      <c r="N314" s="18"/>
+      <c r="O314" s="18"/>
+      <c r="P314" s="18"/>
       <c r="Q314" s="1"/>
-      <c r="R314" s="19"/>
-      <c r="S314" s="19"/>
+      <c r="R314" s="18"/>
+      <c r="S314" s="18"/>
       <c r="T314" s="1"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
+      <c r="B315" s="18"/>
+      <c r="C315" s="18"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="19"/>
-      <c r="F315" s="19"/>
-      <c r="G315" s="19"/>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="18"/>
+      <c r="G315" s="18"/>
+      <c r="H315" s="18"/>
+      <c r="I315" s="18"/>
       <c r="J315" s="1"/>
-      <c r="K315" s="19"/>
-      <c r="L315" s="19"/>
-      <c r="M315" s="19"/>
-      <c r="N315" s="19"/>
-      <c r="O315" s="19"/>
-      <c r="P315" s="19"/>
+      <c r="K315" s="18"/>
+      <c r="L315" s="18"/>
+      <c r="M315" s="18"/>
+      <c r="N315" s="18"/>
+      <c r="O315" s="18"/>
+      <c r="P315" s="18"/>
       <c r="Q315" s="1"/>
-      <c r="R315" s="19"/>
-      <c r="S315" s="19"/>
+      <c r="R315" s="18"/>
+      <c r="S315" s="18"/>
       <c r="T315" s="1"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="19"/>
-      <c r="F316" s="19"/>
-      <c r="G316" s="19"/>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18"/>
+      <c r="H316" s="18"/>
+      <c r="I316" s="18"/>
       <c r="J316" s="1"/>
-      <c r="K316" s="19"/>
-      <c r="L316" s="19"/>
-      <c r="M316" s="19"/>
-      <c r="N316" s="19"/>
-      <c r="O316" s="19"/>
-      <c r="P316" s="19"/>
+      <c r="K316" s="18"/>
+      <c r="L316" s="18"/>
+      <c r="M316" s="18"/>
+      <c r="N316" s="18"/>
+      <c r="O316" s="18"/>
+      <c r="P316" s="18"/>
       <c r="Q316" s="1"/>
-      <c r="R316" s="19"/>
-      <c r="S316" s="19"/>
+      <c r="R316" s="18"/>
+      <c r="S316" s="18"/>
       <c r="T316" s="1"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
+      <c r="B317" s="18"/>
+      <c r="C317" s="18"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="19"/>
-      <c r="F317" s="19"/>
-      <c r="G317" s="19"/>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="18"/>
+      <c r="G317" s="18"/>
+      <c r="H317" s="18"/>
+      <c r="I317" s="18"/>
       <c r="J317" s="1"/>
-      <c r="K317" s="19"/>
-      <c r="L317" s="19"/>
-      <c r="M317" s="19"/>
-      <c r="N317" s="19"/>
-      <c r="O317" s="19"/>
-      <c r="P317" s="19"/>
+      <c r="K317" s="18"/>
+      <c r="L317" s="18"/>
+      <c r="M317" s="18"/>
+      <c r="N317" s="18"/>
+      <c r="O317" s="18"/>
+      <c r="P317" s="18"/>
       <c r="Q317" s="1"/>
-      <c r="R317" s="19"/>
-      <c r="S317" s="19"/>
+      <c r="R317" s="18"/>
+      <c r="S317" s="18"/>
       <c r="T317" s="1"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
+      <c r="B318" s="18"/>
+      <c r="C318" s="18"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="19"/>
-      <c r="F318" s="19"/>
-      <c r="G318" s="19"/>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="18"/>
+      <c r="H318" s="18"/>
+      <c r="I318" s="18"/>
       <c r="J318" s="1"/>
-      <c r="K318" s="19"/>
-      <c r="L318" s="19"/>
-      <c r="M318" s="19"/>
-      <c r="N318" s="19"/>
-      <c r="O318" s="19"/>
-      <c r="P318" s="19"/>
+      <c r="K318" s="18"/>
+      <c r="L318" s="18"/>
+      <c r="M318" s="18"/>
+      <c r="N318" s="18"/>
+      <c r="O318" s="18"/>
+      <c r="P318" s="18"/>
       <c r="Q318" s="1"/>
-      <c r="R318" s="19"/>
-      <c r="S318" s="19"/>
+      <c r="R318" s="18"/>
+      <c r="S318" s="18"/>
       <c r="T318" s="1"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
+      <c r="B319" s="18"/>
+      <c r="C319" s="18"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
-      <c r="G319" s="19"/>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18"/>
+      <c r="H319" s="18"/>
+      <c r="I319" s="18"/>
       <c r="J319" s="1"/>
-      <c r="K319" s="19"/>
-      <c r="L319" s="19"/>
-      <c r="M319" s="19"/>
-      <c r="N319" s="19"/>
-      <c r="O319" s="19"/>
-      <c r="P319" s="19"/>
+      <c r="K319" s="18"/>
+      <c r="L319" s="18"/>
+      <c r="M319" s="18"/>
+      <c r="N319" s="18"/>
+      <c r="O319" s="18"/>
+      <c r="P319" s="18"/>
       <c r="Q319" s="1"/>
-      <c r="R319" s="19"/>
-      <c r="S319" s="19"/>
+      <c r="R319" s="18"/>
+      <c r="S319" s="18"/>
       <c r="T319" s="1"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="18"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="19"/>
-      <c r="F320" s="19"/>
-      <c r="G320" s="19"/>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="18"/>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
       <c r="J320" s="1"/>
-      <c r="K320" s="19"/>
-      <c r="L320" s="19"/>
-      <c r="M320" s="19"/>
-      <c r="N320" s="19"/>
-      <c r="O320" s="19"/>
-      <c r="P320" s="19"/>
+      <c r="K320" s="18"/>
+      <c r="L320" s="18"/>
+      <c r="M320" s="18"/>
+      <c r="N320" s="18"/>
+      <c r="O320" s="18"/>
+      <c r="P320" s="18"/>
       <c r="Q320" s="1"/>
-      <c r="R320" s="19"/>
-      <c r="S320" s="19"/>
+      <c r="R320" s="18"/>
+      <c r="S320" s="18"/>
       <c r="T320" s="1"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="18"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="19"/>
-      <c r="F321" s="19"/>
-      <c r="G321" s="19"/>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="18"/>
+      <c r="G321" s="18"/>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
       <c r="J321" s="1"/>
-      <c r="K321" s="19"/>
-      <c r="L321" s="19"/>
-      <c r="M321" s="19"/>
-      <c r="N321" s="19"/>
-      <c r="O321" s="19"/>
-      <c r="P321" s="19"/>
+      <c r="K321" s="18"/>
+      <c r="L321" s="18"/>
+      <c r="M321" s="18"/>
+      <c r="N321" s="18"/>
+      <c r="O321" s="18"/>
+      <c r="P321" s="18"/>
       <c r="Q321" s="1"/>
-      <c r="R321" s="19"/>
-      <c r="S321" s="19"/>
+      <c r="R321" s="18"/>
+      <c r="S321" s="18"/>
       <c r="T321" s="1"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
+      <c r="B322" s="18"/>
+      <c r="C322" s="18"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="19"/>
-      <c r="F322" s="19"/>
-      <c r="G322" s="19"/>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
+      <c r="E322" s="18"/>
+      <c r="F322" s="18"/>
+      <c r="G322" s="18"/>
+      <c r="H322" s="18"/>
+      <c r="I322" s="18"/>
       <c r="J322" s="1"/>
-      <c r="K322" s="19"/>
-      <c r="L322" s="19"/>
-      <c r="M322" s="19"/>
-      <c r="N322" s="19"/>
-      <c r="O322" s="19"/>
-      <c r="P322" s="19"/>
+      <c r="K322" s="18"/>
+      <c r="L322" s="18"/>
+      <c r="M322" s="18"/>
+      <c r="N322" s="18"/>
+      <c r="O322" s="18"/>
+      <c r="P322" s="18"/>
       <c r="Q322" s="1"/>
-      <c r="R322" s="19"/>
-      <c r="S322" s="19"/>
+      <c r="R322" s="18"/>
+      <c r="S322" s="18"/>
       <c r="T322" s="1"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="19"/>
-      <c r="C323" s="19"/>
+      <c r="B323" s="18"/>
+      <c r="C323" s="18"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="19"/>
-      <c r="F323" s="19"/>
-      <c r="G323" s="19"/>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
+      <c r="E323" s="18"/>
+      <c r="F323" s="18"/>
+      <c r="G323" s="18"/>
+      <c r="H323" s="18"/>
+      <c r="I323" s="18"/>
       <c r="J323" s="1"/>
-      <c r="K323" s="19"/>
-      <c r="L323" s="19"/>
-      <c r="M323" s="19"/>
-      <c r="N323" s="19"/>
-      <c r="O323" s="19"/>
-      <c r="P323" s="19"/>
+      <c r="K323" s="18"/>
+      <c r="L323" s="18"/>
+      <c r="M323" s="18"/>
+      <c r="N323" s="18"/>
+      <c r="O323" s="18"/>
+      <c r="P323" s="18"/>
       <c r="Q323" s="1"/>
-      <c r="R323" s="19"/>
-      <c r="S323" s="19"/>
+      <c r="R323" s="18"/>
+      <c r="S323" s="18"/>
       <c r="T323" s="1"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
+      <c r="B324" s="18"/>
+      <c r="C324" s="18"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="19"/>
-      <c r="F324" s="19"/>
-      <c r="G324" s="19"/>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
+      <c r="E324" s="18"/>
+      <c r="F324" s="18"/>
+      <c r="G324" s="18"/>
+      <c r="H324" s="18"/>
+      <c r="I324" s="18"/>
       <c r="J324" s="1"/>
-      <c r="K324" s="19"/>
-      <c r="L324" s="19"/>
-      <c r="M324" s="19"/>
-      <c r="N324" s="19"/>
-      <c r="O324" s="19"/>
-      <c r="P324" s="19"/>
+      <c r="K324" s="18"/>
+      <c r="L324" s="18"/>
+      <c r="M324" s="18"/>
+      <c r="N324" s="18"/>
+      <c r="O324" s="18"/>
+      <c r="P324" s="18"/>
       <c r="Q324" s="1"/>
-      <c r="R324" s="19"/>
-      <c r="S324" s="19"/>
+      <c r="R324" s="18"/>
+      <c r="S324" s="18"/>
       <c r="T324" s="1"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
+      <c r="B325" s="18"/>
+      <c r="C325" s="18"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="19"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
+      <c r="E325" s="18"/>
+      <c r="F325" s="18"/>
+      <c r="G325" s="18"/>
+      <c r="H325" s="18"/>
+      <c r="I325" s="18"/>
       <c r="J325" s="1"/>
-      <c r="K325" s="19"/>
-      <c r="L325" s="19"/>
-      <c r="M325" s="19"/>
-      <c r="N325" s="19"/>
-      <c r="O325" s="19"/>
-      <c r="P325" s="19"/>
+      <c r="K325" s="18"/>
+      <c r="L325" s="18"/>
+      <c r="M325" s="18"/>
+      <c r="N325" s="18"/>
+      <c r="O325" s="18"/>
+      <c r="P325" s="18"/>
       <c r="Q325" s="1"/>
-      <c r="R325" s="19"/>
-      <c r="S325" s="19"/>
+      <c r="R325" s="18"/>
+      <c r="S325" s="18"/>
       <c r="T325" s="1"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="19"/>
-      <c r="C326" s="19"/>
+      <c r="B326" s="18"/>
+      <c r="C326" s="18"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="19"/>
-      <c r="F326" s="19"/>
-      <c r="G326" s="19"/>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
+      <c r="E326" s="18"/>
+      <c r="F326" s="18"/>
+      <c r="G326" s="18"/>
+      <c r="H326" s="18"/>
+      <c r="I326" s="18"/>
       <c r="J326" s="1"/>
-      <c r="K326" s="19"/>
-      <c r="L326" s="19"/>
-      <c r="M326" s="19"/>
-      <c r="N326" s="19"/>
-      <c r="O326" s="19"/>
-      <c r="P326" s="19"/>
+      <c r="K326" s="18"/>
+      <c r="L326" s="18"/>
+      <c r="M326" s="18"/>
+      <c r="N326" s="18"/>
+      <c r="O326" s="18"/>
+      <c r="P326" s="18"/>
       <c r="Q326" s="1"/>
-      <c r="R326" s="19"/>
-      <c r="S326" s="19"/>
+      <c r="R326" s="18"/>
+      <c r="S326" s="18"/>
       <c r="T326" s="1"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
+      <c r="B327" s="18"/>
+      <c r="C327" s="18"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="19"/>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18"/>
+      <c r="H327" s="18"/>
+      <c r="I327" s="18"/>
       <c r="J327" s="1"/>
-      <c r="K327" s="19"/>
-      <c r="L327" s="19"/>
-      <c r="M327" s="19"/>
-      <c r="N327" s="19"/>
-      <c r="O327" s="19"/>
-      <c r="P327" s="19"/>
+      <c r="K327" s="18"/>
+      <c r="L327" s="18"/>
+      <c r="M327" s="18"/>
+      <c r="N327" s="18"/>
+      <c r="O327" s="18"/>
+      <c r="P327" s="18"/>
       <c r="Q327" s="1"/>
-      <c r="R327" s="19"/>
-      <c r="S327" s="19"/>
+      <c r="R327" s="18"/>
+      <c r="S327" s="18"/>
       <c r="T327" s="1"/>
     </row>
     <row r="328" ht="15.75" customHeight="1"/>
